--- a/language.xlsx
+++ b/language.xlsx
@@ -2,27 +2,29 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr codeName="ThisWorkbook"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hong\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hong\WebstormProjects\nvh-client\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23190" windowHeight="11925"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="myLanguage" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="0" iterateDelta="1E-4"/>
+  <extLst>
+    <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
+      <loext:extCalcPr stringRefSyntax="ExcelA1"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="532" uniqueCount="426">
-  <si>
-    <t/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="567" uniqueCount="460">
   <si>
     <t>ko</t>
   </si>
@@ -243,15 +245,6 @@
     <t>enterPassword</t>
   </si>
   <si>
-    <t>비밀번호를 입력해 주세요</t>
-  </si>
-  <si>
-    <t>Please enter a password</t>
-  </si>
-  <si>
-    <t>proszę wprowadzić hasło</t>
-  </si>
-  <si>
     <t>changePassword</t>
   </si>
   <si>
@@ -279,7 +272,34 @@
     <t>X001</t>
   </si>
   <si>
-    <t>좌측 LHD지그 확인</t>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Noto Sans CJK KR Regular"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">좌측 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>LHD</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Noto Sans CJK KR Regular"/>
+        <family val="2"/>
+      </rPr>
+      <t>지그 확인</t>
+    </r>
   </si>
   <si>
     <t>Check the left LHD jig</t>
@@ -291,7 +311,34 @@
     <t>X002</t>
   </si>
   <si>
-    <t>좌측 RHD지그 확인</t>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Noto Sans CJK KR Regular"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">좌측 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>RHD</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Noto Sans CJK KR Regular"/>
+        <family val="2"/>
+      </rPr>
+      <t>지그 확인</t>
+    </r>
   </si>
   <si>
     <t>Check the left RHD jig</t>
@@ -303,7 +350,34 @@
     <t>X003</t>
   </si>
   <si>
-    <t>우측 LHD지그 확인</t>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Noto Sans CJK KR Regular"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">우측 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>LHD</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Noto Sans CJK KR Regular"/>
+        <family val="2"/>
+      </rPr>
+      <t>지그 확인</t>
+    </r>
   </si>
   <si>
     <t>Check the right LHD jig</t>
@@ -315,7 +389,34 @@
     <t>X004</t>
   </si>
   <si>
-    <t>우측 RHD지그 확인</t>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Noto Sans CJK KR Regular"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">우측 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>RHD</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Noto Sans CJK KR Regular"/>
+        <family val="2"/>
+      </rPr>
+      <t>지그 확인</t>
+    </r>
   </si>
   <si>
     <t>Check the right RHD jig</t>
@@ -327,7 +428,44 @@
     <t>X005</t>
   </si>
   <si>
-    <t>LHD 17번/RHD 17번 제품 부착 확인 스위치</t>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>LHD 17</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Noto Sans CJK KR Regular"/>
+        <family val="2"/>
+      </rPr>
+      <t>번</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>/RHD 17</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Noto Sans CJK KR Regular"/>
+        <family val="2"/>
+      </rPr>
+      <t>번 제품 부착 확인 스위치</t>
+    </r>
   </si>
   <si>
     <t>LHD No. 17 / RHD No. 17 Product Attachment Switch</t>
@@ -339,7 +477,44 @@
     <t>X006</t>
   </si>
   <si>
-    <t>LHD 18번/RHD 18번 제품 부착 확인 스위치</t>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>LHD 18</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Noto Sans CJK KR Regular"/>
+        <family val="2"/>
+      </rPr>
+      <t>번</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>/RHD 18</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Noto Sans CJK KR Regular"/>
+        <family val="2"/>
+      </rPr>
+      <t>번 제품 부착 확인 스위치</t>
+    </r>
   </si>
   <si>
     <t>LHD No. 18 / RHD No. 18 Product Attachment Switch</t>
@@ -351,7 +526,44 @@
     <t>X007</t>
   </si>
   <si>
-    <t>LHD 19번/RHD 19번 제품 부착 확인 스위치</t>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>LHD 19</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Noto Sans CJK KR Regular"/>
+        <family val="2"/>
+      </rPr>
+      <t>번</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>/RHD 19</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Noto Sans CJK KR Regular"/>
+        <family val="2"/>
+      </rPr>
+      <t>번 제품 부착 확인 스위치</t>
+    </r>
   </si>
   <si>
     <t>LHD No. 19 / RHD No. 19 Product Attachment Switch</t>
@@ -363,7 +575,25 @@
     <t>X008</t>
   </si>
   <si>
-    <t>LHD 20번 제품 부착 확인 스위치</t>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>LHD 20</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Noto Sans CJK KR Regular"/>
+        <family val="2"/>
+      </rPr>
+      <t>번 제품 부착 확인 스위치</t>
+    </r>
   </si>
   <si>
     <t>LHD No. 20 Product Attachment Confirmation Switch</t>
@@ -375,7 +605,25 @@
     <t>X009</t>
   </si>
   <si>
-    <t>LHD 21번 제품 부착 확인 스위치</t>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>LHD 21</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Noto Sans CJK KR Regular"/>
+        <family val="2"/>
+      </rPr>
+      <t>번 제품 부착 확인 스위치</t>
+    </r>
   </si>
   <si>
     <t>LHD No. 21 Product Attachment Confirmation Switch</t>
@@ -405,7 +653,25 @@
     <t>X00F</t>
   </si>
   <si>
-    <t>1번 제품 부착 확인 스위치</t>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Noto Sans CJK KR Regular"/>
+        <family val="2"/>
+      </rPr>
+      <t>번 제품 부착 확인 스위치</t>
+    </r>
   </si>
   <si>
     <t>No. 1 Product Attachment Confirmation Switch</t>
@@ -417,7 +683,25 @@
     <t>X010</t>
   </si>
   <si>
-    <t>2번 제품 부착 확인 스위치</t>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Noto Sans CJK KR Regular"/>
+        <family val="2"/>
+      </rPr>
+      <t>번 제품 부착 확인 스위치</t>
+    </r>
   </si>
   <si>
     <t>No. 2  Product Attachment Confirmation Switch</t>
@@ -429,7 +713,25 @@
     <t>X011</t>
   </si>
   <si>
-    <t>3번 제품 부착 확인 스위치</t>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Noto Sans CJK KR Regular"/>
+        <family val="2"/>
+      </rPr>
+      <t>번 제품 부착 확인 스위치</t>
+    </r>
   </si>
   <si>
     <t>No. 3  Product Attachment Confirmation Switch</t>
@@ -441,7 +743,25 @@
     <t>X012</t>
   </si>
   <si>
-    <t>4번 제품 부착 확인 스위치</t>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Noto Sans CJK KR Regular"/>
+        <family val="2"/>
+      </rPr>
+      <t>번 제품 부착 확인 스위치</t>
+    </r>
   </si>
   <si>
     <t>No. 4  Product Attachment Confirmation Switch</t>
@@ -453,7 +773,25 @@
     <t>X013</t>
   </si>
   <si>
-    <t>5번 제품 부착 확인 스위치</t>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Noto Sans CJK KR Regular"/>
+        <family val="2"/>
+      </rPr>
+      <t>번 제품 부착 확인 스위치</t>
+    </r>
   </si>
   <si>
     <t>No. 5  Product Attachment Confirmation Switch</t>
@@ -465,7 +803,25 @@
     <t>X014</t>
   </si>
   <si>
-    <t>6번 제품 부착 확인 스위치</t>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>6</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Noto Sans CJK KR Regular"/>
+        <family val="2"/>
+      </rPr>
+      <t>번 제품 부착 확인 스위치</t>
+    </r>
   </si>
   <si>
     <t>No. 6  Product Attachment Confirmation Switch</t>
@@ -477,7 +833,25 @@
     <t>X015</t>
   </si>
   <si>
-    <t>7번 제품 부착 확인 스위치</t>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>7</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Noto Sans CJK KR Regular"/>
+        <family val="2"/>
+      </rPr>
+      <t>번 제품 부착 확인 스위치</t>
+    </r>
   </si>
   <si>
     <t>No. 7  Product Attachment Confirmation Switch</t>
@@ -489,7 +863,25 @@
     <t>X016</t>
   </si>
   <si>
-    <t>8번 제품 부착 확인 스위치</t>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>8</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Noto Sans CJK KR Regular"/>
+        <family val="2"/>
+      </rPr>
+      <t>번 제품 부착 확인 스위치</t>
+    </r>
   </si>
   <si>
     <t>No. 8  Product Attachment Confirmation Switch</t>
@@ -501,7 +893,25 @@
     <t>X017</t>
   </si>
   <si>
-    <t>9번 제품 부착 확인 스위치</t>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>9</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Noto Sans CJK KR Regular"/>
+        <family val="2"/>
+      </rPr>
+      <t>번 제품 부착 확인 스위치</t>
+    </r>
   </si>
   <si>
     <t>No. 9  Product Attachment Confirmation Switch</t>
@@ -513,7 +923,25 @@
     <t>X018</t>
   </si>
   <si>
-    <t>10번 제품 부착 확인 스위치</t>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>10</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Noto Sans CJK KR Regular"/>
+        <family val="2"/>
+      </rPr>
+      <t>번 제품 부착 확인 스위치</t>
+    </r>
   </si>
   <si>
     <t>No. 10  Product Attachment Confirmation Switch</t>
@@ -525,7 +953,25 @@
     <t>X019</t>
   </si>
   <si>
-    <t>11번 제품 부착 확인 스위치</t>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>11</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Noto Sans CJK KR Regular"/>
+        <family val="2"/>
+      </rPr>
+      <t>번 제품 부착 확인 스위치</t>
+    </r>
   </si>
   <si>
     <t>No. 11  Product Attachment Confirmation Switch</t>
@@ -537,7 +983,25 @@
     <t>X01A</t>
   </si>
   <si>
-    <t>12번 제품 부착 확인 스위치</t>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>12</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Noto Sans CJK KR Regular"/>
+        <family val="2"/>
+      </rPr>
+      <t>번 제품 부착 확인 스위치</t>
+    </r>
   </si>
   <si>
     <t>No. 12  Product Attachment Confirmation Switch</t>
@@ -549,7 +1013,25 @@
     <t>X01B</t>
   </si>
   <si>
-    <t>13번 제품 부착 확인 스위치</t>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>13</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Noto Sans CJK KR Regular"/>
+        <family val="2"/>
+      </rPr>
+      <t>번 제품 부착 확인 스위치</t>
+    </r>
   </si>
   <si>
     <t>No. 13  Product Attachment Confirmation Switch</t>
@@ -561,7 +1043,25 @@
     <t>X01C</t>
   </si>
   <si>
-    <t>14번 제품 부착 확인 스위치</t>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>14</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Noto Sans CJK KR Regular"/>
+        <family val="2"/>
+      </rPr>
+      <t>번 제품 부착 확인 스위치</t>
+    </r>
   </si>
   <si>
     <t>No. 14  Product Attachment Confirmation Switch</t>
@@ -573,7 +1073,25 @@
     <t>X01D</t>
   </si>
   <si>
-    <t>15번 제품 부착 확인 스위치</t>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>15</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Noto Sans CJK KR Regular"/>
+        <family val="2"/>
+      </rPr>
+      <t>번 제품 부착 확인 스위치</t>
+    </r>
   </si>
   <si>
     <t>No. 15  Product Attachment Confirmation Switch</t>
@@ -585,7 +1103,25 @@
     <t>X01E</t>
   </si>
   <si>
-    <t>16번 제품 부착 확인 스위치</t>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>16</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Noto Sans CJK KR Regular"/>
+        <family val="2"/>
+      </rPr>
+      <t>번 제품 부착 확인 스위치</t>
+    </r>
   </si>
   <si>
     <t>No. 16  Product Attachment Confirmation Switch</t>
@@ -597,7 +1133,25 @@
     <t>X01F</t>
   </si>
   <si>
-    <t>17번 제품 부착 확인 스위치</t>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>17</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Noto Sans CJK KR Regular"/>
+        <family val="2"/>
+      </rPr>
+      <t>번 제품 부착 확인 스위치</t>
+    </r>
   </si>
   <si>
     <t>No. 17  Product Attachment Confirmation Switch</t>
@@ -609,7 +1163,44 @@
     <t>X020</t>
   </si>
   <si>
-    <t>1번 실린더 HP 센서</t>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Noto Sans CJK KR Regular"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">번 실린더 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">HP </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Noto Sans CJK KR Regular"/>
+        <family val="2"/>
+      </rPr>
+      <t>센서</t>
+    </r>
   </si>
   <si>
     <t>Cylinder 1 HP sensor</t>
@@ -621,7 +1212,44 @@
     <t>X021</t>
   </si>
   <si>
-    <t>1번 실런더 WP 센서</t>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Noto Sans CJK KR Regular"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">번 실런더 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">WP </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Noto Sans CJK KR Regular"/>
+        <family val="2"/>
+      </rPr>
+      <t>센서</t>
+    </r>
   </si>
   <si>
     <t>Cylinder 1 WP sensor</t>
@@ -633,7 +1261,44 @@
     <t>X022</t>
   </si>
   <si>
-    <t>2번 실린더 HP 센서</t>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Noto Sans CJK KR Regular"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">번 실린더 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">HP </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Noto Sans CJK KR Regular"/>
+        <family val="2"/>
+      </rPr>
+      <t>센서</t>
+    </r>
   </si>
   <si>
     <t>Cylinder 2 HP sensor</t>
@@ -645,7 +1310,44 @@
     <t>X023</t>
   </si>
   <si>
-    <t>2번 실런더 WP 센서</t>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Noto Sans CJK KR Regular"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">번 실런더 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">WP </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Noto Sans CJK KR Regular"/>
+        <family val="2"/>
+      </rPr>
+      <t>센서</t>
+    </r>
   </si>
   <si>
     <t>Cylinder 2 WP sensor</t>
@@ -657,7 +1359,44 @@
     <t>X024</t>
   </si>
   <si>
-    <t>3번 실린더 HP 센서</t>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Noto Sans CJK KR Regular"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">번 실린더 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">HP </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Noto Sans CJK KR Regular"/>
+        <family val="2"/>
+      </rPr>
+      <t>센서</t>
+    </r>
   </si>
   <si>
     <t>Cylinder 3 HP sensor</t>
@@ -669,7 +1408,44 @@
     <t>X025</t>
   </si>
   <si>
-    <t>3번 실런더 WP 센서</t>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Noto Sans CJK KR Regular"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">번 실런더 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">WP </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Noto Sans CJK KR Regular"/>
+        <family val="2"/>
+      </rPr>
+      <t>센서</t>
+    </r>
   </si>
   <si>
     <t>Cylinder 3 WP sensor</t>
@@ -681,7 +1457,44 @@
     <t>X026</t>
   </si>
   <si>
-    <t>4번 실린더 HP 센서</t>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Noto Sans CJK KR Regular"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">번 실린더 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">HP </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Noto Sans CJK KR Regular"/>
+        <family val="2"/>
+      </rPr>
+      <t>센서</t>
+    </r>
   </si>
   <si>
     <t>Cylinder 4 HP sensor</t>
@@ -693,7 +1506,44 @@
     <t>X027</t>
   </si>
   <si>
-    <t>4번 실런더 WP 센서</t>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Noto Sans CJK KR Regular"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">번 실런더 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">WP </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Noto Sans CJK KR Regular"/>
+        <family val="2"/>
+      </rPr>
+      <t>센서</t>
+    </r>
   </si>
   <si>
     <t>Cylinder 4 WP sensor</t>
@@ -705,7 +1555,44 @@
     <t>X028</t>
   </si>
   <si>
-    <t>5번 실린더 HP 센서</t>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Noto Sans CJK KR Regular"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">번 실린더 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">HP </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Noto Sans CJK KR Regular"/>
+        <family val="2"/>
+      </rPr>
+      <t>센서</t>
+    </r>
   </si>
   <si>
     <t>Cylinder 5 HP sensor</t>
@@ -717,7 +1604,44 @@
     <t>X029</t>
   </si>
   <si>
-    <t>5번 실런더 WP 센서</t>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Noto Sans CJK KR Regular"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">번 실런더 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">WP </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Noto Sans CJK KR Regular"/>
+        <family val="2"/>
+      </rPr>
+      <t>센서</t>
+    </r>
   </si>
   <si>
     <t>Cylinder 5 WP sensor</t>
@@ -729,7 +1653,44 @@
     <t>X02A</t>
   </si>
   <si>
-    <t>6번 실린더 HP 센서</t>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>6</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Noto Sans CJK KR Regular"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">번 실린더 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">HP </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Noto Sans CJK KR Regular"/>
+        <family val="2"/>
+      </rPr>
+      <t>센서</t>
+    </r>
   </si>
   <si>
     <t>Cylinder 6 HP sensor</t>
@@ -741,7 +1702,44 @@
     <t>X02B</t>
   </si>
   <si>
-    <t>6번 실런더 WP 센서</t>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>6</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Noto Sans CJK KR Regular"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">번 실런더 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">WP </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Noto Sans CJK KR Regular"/>
+        <family val="2"/>
+      </rPr>
+      <t>센서</t>
+    </r>
   </si>
   <si>
     <t>Cylinder 6 WP sensor</t>
@@ -753,7 +1751,44 @@
     <t>X02C</t>
   </si>
   <si>
-    <t>7번 실린더 HP 센서</t>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>7</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Noto Sans CJK KR Regular"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">번 실린더 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">HP </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Noto Sans CJK KR Regular"/>
+        <family val="2"/>
+      </rPr>
+      <t>센서</t>
+    </r>
   </si>
   <si>
     <t>Cylinder 7 HP sensor</t>
@@ -765,7 +1800,44 @@
     <t>X02D</t>
   </si>
   <si>
-    <t>7번 실런더 WP 센서</t>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>7</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Noto Sans CJK KR Regular"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">번 실런더 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">WP </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Noto Sans CJK KR Regular"/>
+        <family val="2"/>
+      </rPr>
+      <t>센서</t>
+    </r>
   </si>
   <si>
     <t>Cylinder 7 WP sensor</t>
@@ -777,7 +1849,44 @@
     <t>X02E</t>
   </si>
   <si>
-    <t>8번 실린더 HP 센서</t>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>8</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Noto Sans CJK KR Regular"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">번 실린더 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">HP </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Noto Sans CJK KR Regular"/>
+        <family val="2"/>
+      </rPr>
+      <t>센서</t>
+    </r>
   </si>
   <si>
     <t>Cylinder 8 HP sensor</t>
@@ -789,7 +1898,44 @@
     <t>X02F</t>
   </si>
   <si>
-    <t>8번 실런더 WP 센서</t>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>8</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Noto Sans CJK KR Regular"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">번 실런더 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">WP </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Noto Sans CJK KR Regular"/>
+        <family val="2"/>
+      </rPr>
+      <t>센서</t>
+    </r>
   </si>
   <si>
     <t>Cylinder 8 WP sensor</t>
@@ -801,7 +1947,44 @@
     <t>X030</t>
   </si>
   <si>
-    <t>9번 실린더 HP 센서</t>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>9</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Noto Sans CJK KR Regular"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">번 실린더 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">HP </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Noto Sans CJK KR Regular"/>
+        <family val="2"/>
+      </rPr>
+      <t>센서</t>
+    </r>
   </si>
   <si>
     <t>Cylinder 9 HP sensor</t>
@@ -813,7 +1996,44 @@
     <t>X031</t>
   </si>
   <si>
-    <t>9번 실런더 WP 센서</t>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>9</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Noto Sans CJK KR Regular"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">번 실런더 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">WP </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Noto Sans CJK KR Regular"/>
+        <family val="2"/>
+      </rPr>
+      <t>센서</t>
+    </r>
   </si>
   <si>
     <t>Cylinder 9 WP sensor</t>
@@ -825,7 +2045,44 @@
     <t>X032</t>
   </si>
   <si>
-    <t>10번 실린더 HP 센서</t>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>10</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Noto Sans CJK KR Regular"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">번 실린더 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">HP </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Noto Sans CJK KR Regular"/>
+        <family val="2"/>
+      </rPr>
+      <t>센서</t>
+    </r>
   </si>
   <si>
     <t>Cylinder 10 HP sensor</t>
@@ -837,7 +2094,44 @@
     <t>X033</t>
   </si>
   <si>
-    <t>10번 실런더 WP 센서</t>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>10</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Noto Sans CJK KR Regular"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">번 실런더 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">WP </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Noto Sans CJK KR Regular"/>
+        <family val="2"/>
+      </rPr>
+      <t>센서</t>
+    </r>
   </si>
   <si>
     <t>Cylinder 10 WP sensor</t>
@@ -849,7 +2143,44 @@
     <t>X034</t>
   </si>
   <si>
-    <t>11번 실린더 HP 센서</t>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>11</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Noto Sans CJK KR Regular"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">번 실린더 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">HP </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Noto Sans CJK KR Regular"/>
+        <family val="2"/>
+      </rPr>
+      <t>센서</t>
+    </r>
   </si>
   <si>
     <t>Cylinder 11 HP sensor</t>
@@ -861,7 +2192,44 @@
     <t>X035</t>
   </si>
   <si>
-    <t>11번 실런더 WP 센서</t>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>11</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Noto Sans CJK KR Regular"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">번 실런더 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">WP </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Noto Sans CJK KR Regular"/>
+        <family val="2"/>
+      </rPr>
+      <t>센서</t>
+    </r>
   </si>
   <si>
     <t>Cylinder 11 WP sensor</t>
@@ -873,7 +2241,44 @@
     <t>X036</t>
   </si>
   <si>
-    <t>12번 실린더 HP 센서</t>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>12</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Noto Sans CJK KR Regular"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">번 실린더 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">HP </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Noto Sans CJK KR Regular"/>
+        <family val="2"/>
+      </rPr>
+      <t>센서</t>
+    </r>
   </si>
   <si>
     <t>Cylinder 12 HP sensor</t>
@@ -885,7 +2290,44 @@
     <t>X037</t>
   </si>
   <si>
-    <t>12번 실런더 WP 센서</t>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>12</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Noto Sans CJK KR Regular"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">번 실런더 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">WP </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Noto Sans CJK KR Regular"/>
+        <family val="2"/>
+      </rPr>
+      <t>센서</t>
+    </r>
   </si>
   <si>
     <t>Cylinder 12 WP sensor</t>
@@ -897,7 +2339,44 @@
     <t>X038</t>
   </si>
   <si>
-    <t>13번 실린더 HP 센서</t>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>13</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Noto Sans CJK KR Regular"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">번 실린더 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">HP </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Noto Sans CJK KR Regular"/>
+        <family val="2"/>
+      </rPr>
+      <t>센서</t>
+    </r>
   </si>
   <si>
     <t>Cylinder 13 HP sensor</t>
@@ -909,7 +2388,44 @@
     <t>X039</t>
   </si>
   <si>
-    <t>13번 실런더 WP 센서</t>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>13</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Noto Sans CJK KR Regular"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">번 실런더 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">WP </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Noto Sans CJK KR Regular"/>
+        <family val="2"/>
+      </rPr>
+      <t>센서</t>
+    </r>
   </si>
   <si>
     <t>Cylinder 13 WP sensor</t>
@@ -921,7 +2437,44 @@
     <t>X03A</t>
   </si>
   <si>
-    <t>14번 실린더 HP 센서</t>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>14</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Noto Sans CJK KR Regular"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">번 실린더 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">HP </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Noto Sans CJK KR Regular"/>
+        <family val="2"/>
+      </rPr>
+      <t>센서</t>
+    </r>
   </si>
   <si>
     <t>Cylinder 14 HP sensor</t>
@@ -933,7 +2486,44 @@
     <t>X03B</t>
   </si>
   <si>
-    <t>14번 실런더 WP 센서</t>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>14</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Noto Sans CJK KR Regular"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">번 실런더 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">WP </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Noto Sans CJK KR Regular"/>
+        <family val="2"/>
+      </rPr>
+      <t>센서</t>
+    </r>
   </si>
   <si>
     <t>Cylinder 14 WP sensor</t>
@@ -945,7 +2535,44 @@
     <t>X03C</t>
   </si>
   <si>
-    <t>15번 실린더 HP 센서</t>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>15</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Noto Sans CJK KR Regular"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">번 실린더 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">HP </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Noto Sans CJK KR Regular"/>
+        <family val="2"/>
+      </rPr>
+      <t>센서</t>
+    </r>
   </si>
   <si>
     <t>Cylinder 15 HP sensor</t>
@@ -957,7 +2584,44 @@
     <t>X03D</t>
   </si>
   <si>
-    <t>15번 실런더 WP 센서</t>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>15</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Noto Sans CJK KR Regular"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">번 실런더 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">WP </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Noto Sans CJK KR Regular"/>
+        <family val="2"/>
+      </rPr>
+      <t>센서</t>
+    </r>
   </si>
   <si>
     <t>Cylinder 15 WP sensor</t>
@@ -969,7 +2633,44 @@
     <t>X03E</t>
   </si>
   <si>
-    <t>16번 실린더 HP 센서</t>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>16</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Noto Sans CJK KR Regular"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">번 실린더 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">HP </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Noto Sans CJK KR Regular"/>
+        <family val="2"/>
+      </rPr>
+      <t>센서</t>
+    </r>
   </si>
   <si>
     <t>Cylinder 16 HP sensor</t>
@@ -981,7 +2682,44 @@
     <t>X03F</t>
   </si>
   <si>
-    <t>16번 실런더 WP 센서</t>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>16</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Noto Sans CJK KR Regular"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">번 실런더 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">WP </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Noto Sans CJK KR Regular"/>
+        <family val="2"/>
+      </rPr>
+      <t>센서</t>
+    </r>
   </si>
   <si>
     <t>Cylinder 16 WP sensor</t>
@@ -993,7 +2731,44 @@
     <t>X040</t>
   </si>
   <si>
-    <t>17번 실린더 HP 센서</t>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>17</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Noto Sans CJK KR Regular"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">번 실린더 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">HP </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Noto Sans CJK KR Regular"/>
+        <family val="2"/>
+      </rPr>
+      <t>센서</t>
+    </r>
   </si>
   <si>
     <t>Cylinder 17 HP sensor</t>
@@ -1005,7 +2780,44 @@
     <t>X041</t>
   </si>
   <si>
-    <t>17번 실런더 WP 센서</t>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>17</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Noto Sans CJK KR Regular"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">번 실런더 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">WP </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Noto Sans CJK KR Regular"/>
+        <family val="2"/>
+      </rPr>
+      <t>센서</t>
+    </r>
   </si>
   <si>
     <t>Cylinder 17 WP sensor</t>
@@ -1059,7 +2871,35 @@
     <t>Y050</t>
   </si>
   <si>
-    <t>1번 실린더 HP/WP</t>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Noto Sans CJK KR Regular"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">번 실린더 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>HP/WP</t>
+    </r>
   </si>
   <si>
     <t>Cylinder 1 HP / WP</t>
@@ -1068,7 +2908,35 @@
     <t>Y051</t>
   </si>
   <si>
-    <t>2번 실린더 HP/WP</t>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Noto Sans CJK KR Regular"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">번 실린더 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>HP/WP</t>
+    </r>
   </si>
   <si>
     <t>Cylinder 2 HP / WP</t>
@@ -1077,7 +2945,35 @@
     <t>Y052</t>
   </si>
   <si>
-    <t>3번 실린더 HP/WP</t>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Noto Sans CJK KR Regular"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">번 실린더 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>HP/WP</t>
+    </r>
   </si>
   <si>
     <t>Cylinder 3 HP / WP</t>
@@ -1086,7 +2982,35 @@
     <t>Y053</t>
   </si>
   <si>
-    <t>4번 실린더 HP/WP</t>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Noto Sans CJK KR Regular"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">번 실린더 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>HP/WP</t>
+    </r>
   </si>
   <si>
     <t>Cylinder 4 HP / WP</t>
@@ -1095,7 +3019,35 @@
     <t>Y054</t>
   </si>
   <si>
-    <t>5번 실린더 HP/WP</t>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Noto Sans CJK KR Regular"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">번 실린더 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>HP/WP</t>
+    </r>
   </si>
   <si>
     <t>Cylinder 5 HP / WP</t>
@@ -1104,7 +3056,35 @@
     <t>Y055</t>
   </si>
   <si>
-    <t>6번 실린더 HP/WP</t>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>6</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Noto Sans CJK KR Regular"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">번 실린더 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>HP/WP</t>
+    </r>
   </si>
   <si>
     <t>Cylinder 6 HP / WP</t>
@@ -1113,7 +3093,35 @@
     <t>Y056</t>
   </si>
   <si>
-    <t>7번 실린더 HP/WP</t>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>7</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Noto Sans CJK KR Regular"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">번 실린더 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>HP/WP</t>
+    </r>
   </si>
   <si>
     <t>Cylinder 7 HP / WP</t>
@@ -1122,7 +3130,35 @@
     <t>Y057</t>
   </si>
   <si>
-    <t>8번 실린더 HP/WP</t>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>8</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Noto Sans CJK KR Regular"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">번 실린더 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>HP/WP</t>
+    </r>
   </si>
   <si>
     <t>Cylinder 8 HP / WP</t>
@@ -1131,7 +3167,35 @@
     <t>Y058</t>
   </si>
   <si>
-    <t>9번 실린더 HP/WP</t>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>9</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Noto Sans CJK KR Regular"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">번 실린더 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>HP/WP</t>
+    </r>
   </si>
   <si>
     <t>Cylinder 9 HP / WP</t>
@@ -1140,7 +3204,35 @@
     <t>Y059</t>
   </si>
   <si>
-    <t>10번 실린더 HP/WP</t>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>10</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Noto Sans CJK KR Regular"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">번 실린더 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>HP/WP</t>
+    </r>
   </si>
   <si>
     <t>Cylinder 10 HP / WP</t>
@@ -1149,7 +3241,35 @@
     <t>Y05A</t>
   </si>
   <si>
-    <t>11번 실린더 HP/WP</t>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>11</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Noto Sans CJK KR Regular"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">번 실린더 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>HP/WP</t>
+    </r>
   </si>
   <si>
     <t>Cylinder 11 HP / WP</t>
@@ -1158,7 +3278,35 @@
     <t>Y05B</t>
   </si>
   <si>
-    <t>12번 실린더 HP/WP</t>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>12</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Noto Sans CJK KR Regular"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">번 실린더 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>HP/WP</t>
+    </r>
   </si>
   <si>
     <t>Cylinder 12 HP / WP</t>
@@ -1167,7 +3315,35 @@
     <t>Y05C</t>
   </si>
   <si>
-    <t>13번 실린더 HP/WP</t>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>13</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Noto Sans CJK KR Regular"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">번 실린더 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>HP/WP</t>
+    </r>
   </si>
   <si>
     <t>Cylinder 13 HP / WP</t>
@@ -1176,7 +3352,35 @@
     <t>Y05D</t>
   </si>
   <si>
-    <t>14번 실린더 HP/WP</t>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>14</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Noto Sans CJK KR Regular"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">번 실린더 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>HP/WP</t>
+    </r>
   </si>
   <si>
     <t>Cylinder 14 HP / WP</t>
@@ -1185,7 +3389,35 @@
     <t>Y05E</t>
   </si>
   <si>
-    <t>15번 실린더 HP/WP</t>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>15</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Noto Sans CJK KR Regular"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">번 실린더 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>HP/WP</t>
+    </r>
   </si>
   <si>
     <t>Cylinder 15 HP / WP</t>
@@ -1194,7 +3426,35 @@
     <t>Y05F</t>
   </si>
   <si>
-    <t>16번 실린더 HP/WP</t>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>16</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Noto Sans CJK KR Regular"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">번 실린더 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>HP/WP</t>
+    </r>
   </si>
   <si>
     <t>Cylinder 16 HP / WP</t>
@@ -1203,7 +3463,35 @@
     <t>Y060</t>
   </si>
   <si>
-    <t>17번 실린더 HP/WP</t>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>17</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Noto Sans CJK KR Regular"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">번 실린더 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>HP/WP</t>
+    </r>
   </si>
   <si>
     <t>Cylinder 17 HP / WP</t>
@@ -1212,7 +3500,46 @@
     <t>Y061</t>
   </si>
   <si>
-    <t>메인에어 ON/OFF</t>
+    <t>Y062</t>
+  </si>
+  <si>
+    <t>Y063</t>
+  </si>
+  <si>
+    <t>Y064</t>
+  </si>
+  <si>
+    <t>Y065</t>
+  </si>
+  <si>
+    <t>Y066</t>
+  </si>
+  <si>
+    <t>Y067</t>
+  </si>
+  <si>
+    <t>Y068</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Noto Sans CJK KR Regular"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">메인에어 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>ON/OFF</t>
+    </r>
   </si>
   <si>
     <t>Main Air ON / OFF</t>
@@ -1221,10 +3548,28 @@
     <t>Głównym Air ON / OFF</t>
   </si>
   <si>
-    <t>Y062</t>
-  </si>
-  <si>
-    <t>경광등 RED</t>
+    <t>Y069</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Noto Sans CJK KR Regular"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">경광등 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>RED</t>
+    </r>
   </si>
   <si>
     <t>Warning light RED</t>
@@ -1233,10 +3578,28 @@
     <t>Lampka ostrzegawcza CZERWONA</t>
   </si>
   <si>
-    <t>Y063</t>
-  </si>
-  <si>
-    <t>경광등 YELLOW</t>
+    <t>Y06A</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Noto Sans CJK KR Regular"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">경광등 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>YELLOW</t>
+    </r>
   </si>
   <si>
     <t>Warning light YELLOW</t>
@@ -1245,10 +3608,28 @@
     <t>Lampka ostrzegawcza ŻÓŁTA</t>
   </si>
   <si>
-    <t>Y064</t>
-  </si>
-  <si>
-    <t>경광등 GREEN</t>
+    <t>Y06B</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Noto Sans CJK KR Regular"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">경광등 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>GREEN</t>
+    </r>
   </si>
   <si>
     <t>Warning light GREEN</t>
@@ -1257,10 +3638,28 @@
     <t>Lampka ostrzegawcza ZIELONA</t>
   </si>
   <si>
-    <t>Y065</t>
-  </si>
-  <si>
-    <t>경광등 BZ</t>
+    <t>Y06C</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Noto Sans CJK KR Regular"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">경광등 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>BZ</t>
+    </r>
   </si>
   <si>
     <t>Warning light BZ</t>
@@ -1269,27 +3668,6 @@
     <t>Lampka ostrzegawcza BZ</t>
   </si>
   <si>
-    <t>Y066</t>
-  </si>
-  <si>
-    <t>Y067</t>
-  </si>
-  <si>
-    <t>Y068</t>
-  </si>
-  <si>
-    <t>Y069</t>
-  </si>
-  <si>
-    <t>Y06A</t>
-  </si>
-  <si>
-    <t>Y06B</t>
-  </si>
-  <si>
-    <t>Y06C</t>
-  </si>
-  <si>
     <t>Y06D</t>
   </si>
   <si>
@@ -1297,27 +3675,331 @@
   </si>
   <si>
     <t>Y06F</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mainAir</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>메인에어</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Main Air</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>noPLC</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>PLC와 연결되지 않았습니다</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>noAir</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>메인에어가 비활성화 되어 있습니다</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>pressedStop</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>비상 정지 버튼이 눌러져 있습니다</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>leftNotLHD</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>leftNotRHD</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>rightNotLHD</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>rightNotRHD</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>좌측이 LHD 지그인지 확인해 주세요</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>좌측이 RHD 지그인지 확인해 주세요</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>우측이 LHD 지그인지 확인해 주세요</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Please check if the left is an LHD jig</t>
+  </si>
+  <si>
+    <t>Sprawdź, czy lewy jest przyrząd LHD</t>
+  </si>
+  <si>
+    <t>Please check if the left is an RHD jig</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sprawdź, czy lewy jest przyrząd RHD</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Please check if the right side is an LHD jig</t>
+  </si>
+  <si>
+    <t>우측이 RHD 지그인지 확인해 주세요</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Please check if the right side is an RHD jig</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sprawdź, czy prawa strona to przyrząd LHD</t>
+  </si>
+  <si>
+    <t>Sprawdź, czy prawa strona to przyrząd RHD</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Not connected to PLC</t>
+  </si>
+  <si>
+    <t>Nie podłączony do PLC</t>
+  </si>
+  <si>
+    <t>Main Air is disabled</t>
+  </si>
+  <si>
+    <t>Główne powietrze jest wyłączone</t>
+  </si>
+  <si>
+    <t>Emergency stop button is pressed</t>
+  </si>
+  <si>
+    <t>Naciśnięto przycisk zatrzymania awaryjnego</t>
+  </si>
+  <si>
+    <t>notEnter</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>지정 근로자 이외의 조작 금지</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>비밀번호를</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Noto Sans CJK KR Regular"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>입력해</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Noto Sans CJK KR Regular"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>주세요</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Noto Sans CJK KR Regular"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> (</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>지정</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Noto Sans CJK KR Regular"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>근로자</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Noto Sans CJK KR Regular"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>이외의</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Noto Sans CJK KR Regular"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>조작</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Noto Sans CJK KR Regular"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>금지</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Noto Sans CJK KR Regular"/>
+        <family val="2"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Prohibition of operation other than designated workers</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Please enter a password (Prohibition of operation other than designated workers)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Zakaz działania innych niż wyznaczeni pracownicy</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>proszę wprowadzić hasło (Zakaz działania innych niż wyznaczeni pracownicy)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4">
     <font>
       <sz val="12"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
+      <name val="Noto Sans CJK KR Regular"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
       <name val="맑은 고딕"/>
       <family val="2"/>
-      <scheme val="minor"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="8"/>
-      <name val="맑은 고딕"/>
+      <name val="돋움"/>
       <family val="3"/>
       <charset val="129"/>
-      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="돋움"/>
+      <family val="3"/>
+      <charset val="129"/>
     </font>
   </fonts>
   <fills count="2">
@@ -1340,14 +4022,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+  <cellXfs count="3">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -1360,7 +4044,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 테마">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1370,44 +4054,44 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="1F497D"/>
+        <a:srgbClr val="44546A"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="EEECE1"/>
+        <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4F81BD"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="C0504D"/>
+        <a:srgbClr val="ED7D31"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="9BBB59"/>
+        <a:srgbClr val="A5A5A5"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="8064A2"/>
+        <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4BACC6"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="F79646"/>
+        <a:srgbClr val="70AD47"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0000FF"/>
+        <a:srgbClr val="0563C1"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="800080"/>
+        <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="等线 Light"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -1437,12 +4121,12 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="等线"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -1481,2082 +4165,2151 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="50000"/>
-                <a:satMod val="300000"/>
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="35000">
+            <a:gs pos="50000">
               <a:schemeClr val="phClr">
-                <a:tint val="37000"/>
-                <a:satMod val="300000"/>
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:tint val="15000"/>
-                <a:satMod val="350000"/>
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="1"/>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="100000"/>
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
                 <a:shade val="100000"/>
-                <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:tint val="50000"/>
-                <a:shade val="100000"/>
-                <a:satMod val="350000"/>
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="0"/>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr">
-              <a:shade val="95000"/>
-              <a:satMod val="105000"/>
-            </a:schemeClr>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
         </a:ln>
       </a:lnStyleLst>
       <a:effectStyleLst>
         <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
               <a:srgbClr val="000000">
-                <a:alpha val="38000"/>
+                <a:alpha val="63000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-          <a:scene3d>
-            <a:camera prst="orthographicFront">
-              <a:rot lat="0" lon="0" rev="0"/>
-            </a:camera>
-            <a:lightRig rig="threePt" dir="t">
-              <a:rot lat="0" lon="0" rev="1200000"/>
-            </a:lightRig>
-          </a:scene3d>
-          <a:sp3d>
-            <a:bevelT w="63500" h="25400"/>
-          </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
       <a:bgFillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="40000"/>
-                <a:satMod val="350000"/>
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="40000">
+            <a:gs pos="50000">
               <a:schemeClr val="phClr">
-                <a:tint val="45000"/>
-                <a:shade val="99000"/>
-                <a:satMod val="350000"/>
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="20000"/>
-                <a:satMod val="255000"/>
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:path path="circle">
-            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
-          </a:path>
-        </a:gradFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="80000"/>
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="30000"/>
-                <a:satMod val="200000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:path path="circle">
-            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
-          </a:path>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults>
-    <a:spDef>
-      <a:spPr/>
-      <a:bodyPr/>
-      <a:lstStyle/>
-      <a:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="3">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="2">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </a:style>
-    </a:spDef>
-    <a:lnDef>
-      <a:spPr/>
-      <a:bodyPr/>
-      <a:lstStyle/>
-      <a:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </a:style>
-    </a:lnDef>
-  </a:objectDefaults>
+  <a:objectDefaults/>
   <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D133"/>
+  <dimension ref="A1:D142"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A113" workbookViewId="0">
-      <selection activeCell="K133" sqref="K133"/>
+    <sheetView tabSelected="1" topLeftCell="B7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="27.109375" customWidth="1"/>
+    <col min="2" max="2" width="39" customWidth="1"/>
+    <col min="3" max="3" width="48.33203125" customWidth="1"/>
+    <col min="4" max="4" width="42.77734375" customWidth="1"/>
+    <col min="5" max="5" width="29.33203125" customWidth="1"/>
+    <col min="6" max="1025" width="9.77734375" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+    <row r="1" spans="1:4" ht="17.25">
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+    </row>
+    <row r="2" spans="1:4" ht="17.25">
+      <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+      <c r="B2" t="s">
         <v>4</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D2" t="s">
+    </row>
+    <row r="3" spans="1:4" ht="17.25">
+      <c r="A3" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
+      <c r="B3" t="s">
         <v>8</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D3" t="s">
+    </row>
+    <row r="4" spans="1:4" ht="17.25">
+      <c r="A4" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
+      <c r="B4" t="s">
         <v>12</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D4" t="s">
+    </row>
+    <row r="5" spans="1:4" ht="17.25">
+      <c r="A5" s="1" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
+      <c r="B5" t="s">
         <v>16</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C5" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D5" t="s">
+    </row>
+    <row r="6" spans="1:4" ht="17.25">
+      <c r="A6" s="1" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
+      <c r="B6" t="s">
         <v>20</v>
       </c>
-      <c r="B6" t="s">
+      <c r="C6" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C6" t="s">
+      <c r="D6" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D6" t="s">
+    </row>
+    <row r="7" spans="1:4" ht="17.25">
+      <c r="A7" s="1" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
+      <c r="B7" t="s">
         <v>24</v>
       </c>
-      <c r="B7" t="s">
+      <c r="C7" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C7" t="s">
+      <c r="D7" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="D7" t="s">
+    </row>
+    <row r="8" spans="1:4" ht="17.25">
+      <c r="A8" s="1" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
+      <c r="B8" t="s">
         <v>28</v>
       </c>
-      <c r="B8" t="s">
+      <c r="C8" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C8" t="s">
+      <c r="D8" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D8" t="s">
+    </row>
+    <row r="9" spans="1:4" ht="17.25">
+      <c r="A9" s="1" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
+      <c r="B9" t="s">
         <v>32</v>
       </c>
-      <c r="B9" t="s">
+      <c r="C9" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="C9" t="s">
+      <c r="D9" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="D9" t="s">
+    </row>
+    <row r="10" spans="1:4" ht="17.25">
+      <c r="A10" s="1" t="s">
+        <v>422</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>423</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>424</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="17.25">
+      <c r="A11" s="1" t="s">
+        <v>425</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>426</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>447</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="17.25">
+      <c r="A12" s="1" t="s">
+        <v>427</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>428</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>449</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="17.25">
+      <c r="A13" s="1" t="s">
+        <v>429</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>430</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>451</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="17.25">
+      <c r="A14" s="1" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
+      <c r="B14" t="s">
         <v>36</v>
       </c>
-      <c r="B10" t="s">
+      <c r="C14" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="C10" t="s">
+      <c r="D14" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="D10" t="s">
+    </row>
+    <row r="15" spans="1:4" ht="17.25">
+      <c r="A15" s="1" t="s">
+        <v>431</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>435</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>438</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="17.25">
+      <c r="A16" s="1" t="s">
+        <v>432</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>436</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>440</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="17.25">
+      <c r="A17" s="1" t="s">
+        <v>433</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>437</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="17.25">
+      <c r="A18" s="1" t="s">
+        <v>434</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>444</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="17.25">
+      <c r="A19" s="1" t="s">
+        <v>453</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>454</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>456</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="17.25">
+      <c r="A20" s="1" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
+      <c r="B20" t="s">
         <v>40</v>
       </c>
-      <c r="B11" t="s">
+      <c r="C20" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="C11" t="s">
+      <c r="D20" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D11" t="s">
+    </row>
+    <row r="21" spans="1:4" ht="17.25">
+      <c r="A21" s="1" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
+      <c r="B21" t="s">
         <v>44</v>
       </c>
-      <c r="B12" t="s">
+      <c r="C21" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="C12" t="s">
+      <c r="D21" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="D12" t="s">
+    </row>
+    <row r="22" spans="1:4" ht="17.25">
+      <c r="A22" s="1" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
+      <c r="B22" t="s">
         <v>48</v>
       </c>
-      <c r="B13" t="s">
+      <c r="C22" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="C13" t="s">
+      <c r="D22" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="17.25">
+      <c r="A23" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="D13" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
+      <c r="B23" t="s">
         <v>51</v>
       </c>
-      <c r="B14" t="s">
+      <c r="C23" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="C14" t="s">
+      <c r="D23" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="D14" t="s">
+    </row>
+    <row r="24" spans="1:4" ht="17.25">
+      <c r="A24" s="1" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
+      <c r="B24" t="s">
         <v>55</v>
       </c>
-      <c r="B15" t="s">
+      <c r="C24" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="C15" t="s">
+      <c r="D24" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="D15" t="s">
+    </row>
+    <row r="25" spans="1:4" ht="17.25">
+      <c r="A25" s="1" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
+      <c r="B25" t="s">
         <v>59</v>
       </c>
-      <c r="B16" t="s">
+      <c r="C25" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="C16" t="s">
+      <c r="D25" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="D16" t="s">
+    </row>
+    <row r="26" spans="1:4" ht="17.25">
+      <c r="A26" s="1" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
+      <c r="B26" t="s">
         <v>63</v>
       </c>
-      <c r="B17" t="s">
+      <c r="C26" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="C17" t="s">
+      <c r="D26" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" ht="17.25">
+      <c r="A27" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="D17" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
+      <c r="B27" t="s">
         <v>66</v>
       </c>
-      <c r="B18" t="s">
+      <c r="C27" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="C18" t="s">
+      <c r="D27" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="D18" t="s">
+    </row>
+    <row r="28" spans="1:4" ht="17.25">
+      <c r="A28" s="1" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
+      <c r="B28" t="s">
         <v>70</v>
       </c>
-      <c r="B19" t="s">
+      <c r="C28" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="C19" t="s">
+      <c r="D28" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" ht="17.25">
+      <c r="A29" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="D19" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
+      <c r="B29" t="s">
+        <v>455</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>457</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" ht="17.25">
+      <c r="A30" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B30" t="s">
         <v>74</v>
       </c>
-      <c r="C20" t="s">
+      <c r="C30" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="D20" t="s">
+      <c r="D30" s="1" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
+    <row r="31" spans="1:4" ht="17.25">
+      <c r="A31" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B31" t="s">
         <v>78</v>
       </c>
-      <c r="C21" t="s">
+      <c r="C31" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="D21" t="s">
+      <c r="D31" s="1" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
+    <row r="32" spans="1:4" ht="17.25">
+      <c r="A32" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B32" t="s">
         <v>82</v>
       </c>
-      <c r="C22" t="s">
+      <c r="C32" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="D22" t="s">
+      <c r="D32" s="1" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A23" t="s">
+    <row r="33" spans="1:4" ht="17.25">
+      <c r="A33" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B33" t="s">
         <v>86</v>
       </c>
-      <c r="C23" t="s">
+      <c r="C33" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="D23" t="s">
+      <c r="D33" s="1" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A24" t="s">
+    <row r="34" spans="1:4" ht="17.25">
+      <c r="A34" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="B24" t="s">
+      <c r="B34" t="s">
         <v>90</v>
       </c>
-      <c r="C24" t="s">
+      <c r="C34" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="D24" t="s">
+      <c r="D34" s="1" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
+    <row r="35" spans="1:4" ht="17.25">
+      <c r="A35" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="B25" t="s">
+      <c r="B35" t="s">
         <v>94</v>
       </c>
-      <c r="C25" t="s">
+      <c r="C35" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="D25" t="s">
+      <c r="D35" s="1" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A26" t="s">
+    <row r="36" spans="1:4" ht="17.25">
+      <c r="A36" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="B26" t="s">
+      <c r="B36" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="C26" t="s">
+      <c r="C36" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="D26" t="s">
+      <c r="D36" s="1" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A27" t="s">
+    <row r="37" spans="1:4" ht="17.25">
+      <c r="A37" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="B27" t="s">
+      <c r="B37" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="C27" t="s">
+      <c r="C37" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="D27" t="s">
+      <c r="D37" s="1" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A28" t="s">
+    <row r="38" spans="1:4" ht="17.25">
+      <c r="A38" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="B28" t="s">
+      <c r="B38" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="C28" t="s">
+      <c r="C38" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="D28" t="s">
+      <c r="D38" s="1" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A29" t="s">
+    <row r="39" spans="1:4" ht="17.25">
+      <c r="A39" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="B29" t="s">
+      <c r="B39" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="C29" t="s">
+      <c r="C39" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="D29" t="s">
+      <c r="D39" s="1" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A30" t="s">
+    <row r="40" spans="1:4" ht="17.25">
+      <c r="A40" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="B30" t="s">
+      <c r="B40" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="C30" t="s">
+      <c r="C40" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="D30" t="s">
+      <c r="D40" s="1" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A31" t="s">
+    <row r="41" spans="1:4" ht="17.25">
+      <c r="A41" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="B31" t="s">
-        <v>118</v>
-      </c>
-      <c r="C31" t="s">
+      <c r="B41" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" ht="17.25">
+      <c r="A42" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="D31" t="s">
+      <c r="B42" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" ht="17.25">
+      <c r="A43" s="1" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A32" t="s">
+      <c r="B43" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" ht="17.25">
+      <c r="A44" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="B32" t="s">
+      <c r="B44" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" ht="17.25">
+      <c r="A45" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="C32" t="s">
-        <v>122</v>
-      </c>
-      <c r="D32" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A33" t="s">
+      <c r="B45" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" ht="17.25">
+      <c r="A46" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="B33" t="s">
-        <v>122</v>
-      </c>
-      <c r="C33" t="s">
-        <v>122</v>
-      </c>
-      <c r="D33" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A34" t="s">
+      <c r="B46" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="B34" t="s">
-        <v>122</v>
-      </c>
-      <c r="C34" t="s">
-        <v>122</v>
-      </c>
-      <c r="D34" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A35" t="s">
+      <c r="C46" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="B35" t="s">
-        <v>122</v>
-      </c>
-      <c r="C35" t="s">
-        <v>122</v>
-      </c>
-      <c r="D35" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A36" t="s">
+      <c r="D46" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="B36" t="s">
-        <v>122</v>
-      </c>
-      <c r="C36" t="s">
-        <v>122</v>
-      </c>
-      <c r="D36" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A37" t="s">
+    </row>
+    <row r="47" spans="1:4" ht="17.25">
+      <c r="A47" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="B37" t="s">
+      <c r="B47" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="C37" t="s">
+      <c r="C47" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="D37" t="s">
+      <c r="D47" s="1" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A38" t="s">
+    <row r="48" spans="1:4" ht="17.25">
+      <c r="A48" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="B38" t="s">
+      <c r="B48" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="C38" t="s">
+      <c r="C48" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="D38" t="s">
+      <c r="D48" s="1" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A39" t="s">
+    <row r="49" spans="1:4" ht="17.25">
+      <c r="A49" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="B39" t="s">
+      <c r="B49" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="C39" t="s">
+      <c r="C49" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="D39" t="s">
+      <c r="D49" s="1" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A40" t="s">
+    <row r="50" spans="1:4" ht="17.25">
+      <c r="A50" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="B40" t="s">
+      <c r="B50" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="C40" t="s">
+      <c r="C50" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="D40" t="s">
+      <c r="D50" s="1" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A41" t="s">
+    <row r="51" spans="1:4" ht="17.25">
+      <c r="A51" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="B41" t="s">
+      <c r="B51" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="C41" t="s">
+      <c r="C51" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="D41" t="s">
+      <c r="D51" s="1" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A42" t="s">
+    <row r="52" spans="1:4" ht="17.25">
+      <c r="A52" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="B42" t="s">
+      <c r="B52" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="C42" t="s">
+      <c r="C52" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="D42" t="s">
+      <c r="D52" s="1" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A43" t="s">
+    <row r="53" spans="1:4" ht="17.25">
+      <c r="A53" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="B43" t="s">
+      <c r="B53" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="C43" t="s">
+      <c r="C53" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="D43" t="s">
+      <c r="D53" s="1" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A44" t="s">
+    <row r="54" spans="1:4" ht="17.25">
+      <c r="A54" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="B44" t="s">
+      <c r="B54" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="C44" t="s">
+      <c r="C54" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="D44" t="s">
+      <c r="D54" s="1" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A45" t="s">
+    <row r="55" spans="1:4" ht="17.25">
+      <c r="A55" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="B45" t="s">
+      <c r="B55" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="C45" t="s">
+      <c r="C55" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="D45" t="s">
+      <c r="D55" s="1" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A46" t="s">
+    <row r="56" spans="1:4" ht="17.25">
+      <c r="A56" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="B46" t="s">
+      <c r="B56" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="C46" t="s">
+      <c r="C56" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="D46" t="s">
+      <c r="D56" s="1" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A47" t="s">
+    <row r="57" spans="1:4" ht="17.25">
+      <c r="A57" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="B47" t="s">
+      <c r="B57" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="C47" t="s">
+      <c r="C57" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="D47" t="s">
+      <c r="D57" s="1" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A48" t="s">
+    <row r="58" spans="1:4" ht="17.25">
+      <c r="A58" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="B48" t="s">
+      <c r="B58" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="C48" t="s">
+      <c r="C58" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="D48" t="s">
+      <c r="D58" s="1" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A49" t="s">
+    <row r="59" spans="1:4" ht="17.25">
+      <c r="A59" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="B49" t="s">
+      <c r="B59" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="C49" t="s">
+      <c r="C59" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="D49" t="s">
+      <c r="D59" s="1" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A50" t="s">
+    <row r="60" spans="1:4" ht="17.25">
+      <c r="A60" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="B50" t="s">
+      <c r="B60" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="C50" t="s">
+      <c r="C60" s="1" t="s">
         <v>181</v>
       </c>
-      <c r="D50" t="s">
+      <c r="D60" s="1" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A51" t="s">
+    <row r="61" spans="1:4" ht="17.25">
+      <c r="A61" s="1" t="s">
         <v>183</v>
       </c>
-      <c r="B51" t="s">
+      <c r="B61" s="1" t="s">
         <v>184</v>
       </c>
-      <c r="C51" t="s">
+      <c r="C61" s="1" t="s">
         <v>185</v>
       </c>
-      <c r="D51" t="s">
+      <c r="D61" s="1" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A52" t="s">
+    <row r="62" spans="1:4" ht="17.25">
+      <c r="A62" s="1" t="s">
         <v>187</v>
       </c>
-      <c r="B52" t="s">
+      <c r="B62" s="1" t="s">
         <v>188</v>
       </c>
-      <c r="C52" t="s">
+      <c r="C62" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="D52" t="s">
+      <c r="D62" s="1" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A53" t="s">
+    <row r="63" spans="1:4" ht="17.25">
+      <c r="A63" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="B53" t="s">
+      <c r="B63" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="C53" t="s">
+      <c r="C63" s="1" t="s">
         <v>193</v>
       </c>
-      <c r="D53" t="s">
+      <c r="D63" s="1" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A54" t="s">
+    <row r="64" spans="1:4" ht="17.25">
+      <c r="A64" s="1" t="s">
         <v>195</v>
       </c>
-      <c r="B54" t="s">
+      <c r="B64" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="C54" t="s">
+      <c r="C64" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="D54" t="s">
+      <c r="D64" s="1" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A55" t="s">
+    <row r="65" spans="1:4" ht="17.25">
+      <c r="A65" s="1" t="s">
         <v>199</v>
       </c>
-      <c r="B55" t="s">
+      <c r="B65" s="1" t="s">
         <v>200</v>
       </c>
-      <c r="C55" t="s">
+      <c r="C65" s="1" t="s">
         <v>201</v>
       </c>
-      <c r="D55" t="s">
+      <c r="D65" s="1" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A56" t="s">
+    <row r="66" spans="1:4" ht="17.25">
+      <c r="A66" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="B56" t="s">
+      <c r="B66" s="1" t="s">
         <v>204</v>
       </c>
-      <c r="C56" t="s">
+      <c r="C66" s="1" t="s">
         <v>205</v>
       </c>
-      <c r="D56" t="s">
+      <c r="D66" s="1" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A57" t="s">
+    <row r="67" spans="1:4" ht="17.25">
+      <c r="A67" s="1" t="s">
         <v>207</v>
       </c>
-      <c r="B57" t="s">
+      <c r="B67" s="1" t="s">
         <v>208</v>
       </c>
-      <c r="C57" t="s">
+      <c r="C67" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="D57" t="s">
+      <c r="D67" s="1" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A58" t="s">
+    <row r="68" spans="1:4" ht="17.25">
+      <c r="A68" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="B58" t="s">
+      <c r="B68" s="1" t="s">
         <v>212</v>
       </c>
-      <c r="C58" t="s">
+      <c r="C68" s="1" t="s">
         <v>213</v>
       </c>
-      <c r="D58" t="s">
+      <c r="D68" s="1" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A59" t="s">
+    <row r="69" spans="1:4" ht="17.25">
+      <c r="A69" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="B59" t="s">
+      <c r="B69" s="1" t="s">
         <v>216</v>
       </c>
-      <c r="C59" t="s">
+      <c r="C69" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="D59" t="s">
+      <c r="D69" s="1" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A60" t="s">
+    <row r="70" spans="1:4" ht="17.25">
+      <c r="A70" s="1" t="s">
         <v>219</v>
       </c>
-      <c r="B60" t="s">
+      <c r="B70" s="1" t="s">
         <v>220</v>
       </c>
-      <c r="C60" t="s">
+      <c r="C70" s="1" t="s">
         <v>221</v>
       </c>
-      <c r="D60" t="s">
+      <c r="D70" s="1" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A61" t="s">
+    <row r="71" spans="1:4" ht="17.25">
+      <c r="A71" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="B61" t="s">
+      <c r="B71" s="1" t="s">
         <v>224</v>
       </c>
-      <c r="C61" t="s">
+      <c r="C71" s="1" t="s">
         <v>225</v>
       </c>
-      <c r="D61" t="s">
+      <c r="D71" s="1" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A62" t="s">
+    <row r="72" spans="1:4" ht="17.25">
+      <c r="A72" s="1" t="s">
         <v>227</v>
       </c>
-      <c r="B62" t="s">
+      <c r="B72" s="1" t="s">
         <v>228</v>
       </c>
-      <c r="C62" t="s">
+      <c r="C72" s="1" t="s">
         <v>229</v>
       </c>
-      <c r="D62" t="s">
+      <c r="D72" s="1" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A63" t="s">
+    <row r="73" spans="1:4" ht="17.25">
+      <c r="A73" s="1" t="s">
         <v>231</v>
       </c>
-      <c r="B63" t="s">
+      <c r="B73" s="1" t="s">
         <v>232</v>
       </c>
-      <c r="C63" t="s">
+      <c r="C73" s="1" t="s">
         <v>233</v>
       </c>
-      <c r="D63" t="s">
+      <c r="D73" s="1" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A64" t="s">
+    <row r="74" spans="1:4" ht="17.25">
+      <c r="A74" s="1" t="s">
         <v>235</v>
       </c>
-      <c r="B64" t="s">
+      <c r="B74" s="1" t="s">
         <v>236</v>
       </c>
-      <c r="C64" t="s">
+      <c r="C74" s="1" t="s">
         <v>237</v>
       </c>
-      <c r="D64" t="s">
+      <c r="D74" s="1" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A65" t="s">
+    <row r="75" spans="1:4" ht="17.25">
+      <c r="A75" s="1" t="s">
         <v>239</v>
       </c>
-      <c r="B65" t="s">
+      <c r="B75" s="1" t="s">
         <v>240</v>
       </c>
-      <c r="C65" t="s">
+      <c r="C75" s="1" t="s">
         <v>241</v>
       </c>
-      <c r="D65" t="s">
+      <c r="D75" s="1" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A66" t="s">
+    <row r="76" spans="1:4" ht="17.25">
+      <c r="A76" s="1" t="s">
         <v>243</v>
       </c>
-      <c r="B66" t="s">
+      <c r="B76" s="1" t="s">
         <v>244</v>
       </c>
-      <c r="C66" t="s">
+      <c r="C76" s="1" t="s">
         <v>245</v>
       </c>
-      <c r="D66" t="s">
+      <c r="D76" s="1" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A67" t="s">
+    <row r="77" spans="1:4" ht="17.25">
+      <c r="A77" s="1" t="s">
         <v>247</v>
       </c>
-      <c r="B67" t="s">
+      <c r="B77" s="1" t="s">
         <v>248</v>
       </c>
-      <c r="C67" t="s">
+      <c r="C77" s="1" t="s">
         <v>249</v>
       </c>
-      <c r="D67" t="s">
+      <c r="D77" s="1" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A68" t="s">
+    <row r="78" spans="1:4" ht="17.25">
+      <c r="A78" s="1" t="s">
         <v>251</v>
       </c>
-      <c r="B68" t="s">
+      <c r="B78" s="1" t="s">
         <v>252</v>
       </c>
-      <c r="C68" t="s">
+      <c r="C78" s="1" t="s">
         <v>253</v>
       </c>
-      <c r="D68" t="s">
+      <c r="D78" s="1" t="s">
         <v>254</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A69" t="s">
+    <row r="79" spans="1:4" ht="17.25">
+      <c r="A79" s="1" t="s">
         <v>255</v>
       </c>
-      <c r="B69" t="s">
+      <c r="B79" s="1" t="s">
         <v>256</v>
       </c>
-      <c r="C69" t="s">
+      <c r="C79" s="1" t="s">
         <v>257</v>
       </c>
-      <c r="D69" t="s">
+      <c r="D79" s="1" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A70" t="s">
+    <row r="80" spans="1:4" ht="17.25">
+      <c r="A80" s="1" t="s">
         <v>259</v>
       </c>
-      <c r="B70" t="s">
+      <c r="B80" s="1" t="s">
         <v>260</v>
       </c>
-      <c r="C70" t="s">
+      <c r="C80" s="1" t="s">
         <v>261</v>
       </c>
-      <c r="D70" t="s">
+      <c r="D80" s="1" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A71" t="s">
+    <row r="81" spans="1:4" ht="17.25">
+      <c r="A81" s="1" t="s">
         <v>263</v>
       </c>
-      <c r="B71" t="s">
+      <c r="B81" s="1" t="s">
         <v>264</v>
       </c>
-      <c r="C71" t="s">
+      <c r="C81" s="1" t="s">
         <v>265</v>
       </c>
-      <c r="D71" t="s">
+      <c r="D81" s="1" t="s">
         <v>266</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A72" t="s">
+    <row r="82" spans="1:4" ht="17.25">
+      <c r="A82" s="1" t="s">
         <v>267</v>
       </c>
-      <c r="B72" t="s">
+      <c r="B82" s="1" t="s">
         <v>268</v>
       </c>
-      <c r="C72" t="s">
+      <c r="C82" s="1" t="s">
         <v>269</v>
       </c>
-      <c r="D72" t="s">
+      <c r="D82" s="1" t="s">
         <v>270</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A73" t="s">
+    <row r="83" spans="1:4" ht="17.25">
+      <c r="A83" s="1" t="s">
         <v>271</v>
       </c>
-      <c r="B73" t="s">
+      <c r="B83" s="1" t="s">
         <v>272</v>
       </c>
-      <c r="C73" t="s">
+      <c r="C83" s="1" t="s">
         <v>273</v>
       </c>
-      <c r="D73" t="s">
+      <c r="D83" s="1" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A74" t="s">
+    <row r="84" spans="1:4" ht="17.25">
+      <c r="A84" s="1" t="s">
         <v>275</v>
       </c>
-      <c r="B74" t="s">
+      <c r="B84" s="1" t="s">
         <v>276</v>
       </c>
-      <c r="C74" t="s">
+      <c r="C84" s="1" t="s">
         <v>277</v>
       </c>
-      <c r="D74" t="s">
+      <c r="D84" s="1" t="s">
         <v>278</v>
       </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A75" t="s">
+    <row r="85" spans="1:4" ht="17.25">
+      <c r="A85" s="1" t="s">
         <v>279</v>
       </c>
-      <c r="B75" t="s">
+      <c r="B85" s="1" t="s">
         <v>280</v>
       </c>
-      <c r="C75" t="s">
+      <c r="C85" s="1" t="s">
         <v>281</v>
       </c>
-      <c r="D75" t="s">
+      <c r="D85" s="1" t="s">
         <v>282</v>
       </c>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A76" t="s">
+    <row r="86" spans="1:4" ht="17.25">
+      <c r="A86" s="1" t="s">
         <v>283</v>
       </c>
-      <c r="B76" t="s">
+      <c r="B86" s="1" t="s">
         <v>284</v>
       </c>
-      <c r="C76" t="s">
+      <c r="C86" s="1" t="s">
         <v>285</v>
       </c>
-      <c r="D76" t="s">
+      <c r="D86" s="1" t="s">
         <v>286</v>
       </c>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A77" t="s">
+    <row r="87" spans="1:4" ht="17.25">
+      <c r="A87" s="1" t="s">
         <v>287</v>
       </c>
-      <c r="B77" t="s">
+      <c r="B87" s="1" t="s">
         <v>288</v>
       </c>
-      <c r="C77" t="s">
+      <c r="C87" s="1" t="s">
         <v>289</v>
       </c>
-      <c r="D77" t="s">
+      <c r="D87" s="1" t="s">
         <v>290</v>
       </c>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A78" t="s">
+    <row r="88" spans="1:4" ht="17.25">
+      <c r="A88" s="1" t="s">
         <v>291</v>
       </c>
-      <c r="B78" t="s">
+      <c r="B88" s="1" t="s">
         <v>292</v>
       </c>
-      <c r="C78" t="s">
+      <c r="C88" s="1" t="s">
         <v>293</v>
       </c>
-      <c r="D78" t="s">
+      <c r="D88" s="1" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A79" t="s">
+    <row r="89" spans="1:4" ht="17.25">
+      <c r="A89" s="1" t="s">
         <v>295</v>
       </c>
-      <c r="B79" t="s">
+      <c r="B89" s="1" t="s">
         <v>296</v>
       </c>
-      <c r="C79" t="s">
+      <c r="C89" s="1" t="s">
         <v>297</v>
       </c>
-      <c r="D79" t="s">
+      <c r="D89" s="1" t="s">
         <v>298</v>
       </c>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A80" t="s">
+    <row r="90" spans="1:4" ht="17.25">
+      <c r="A90" s="1" t="s">
         <v>299</v>
       </c>
-      <c r="B80" t="s">
+      <c r="B90" s="1" t="s">
         <v>300</v>
       </c>
-      <c r="C80" t="s">
+      <c r="C90" s="1" t="s">
         <v>301</v>
       </c>
-      <c r="D80" t="s">
+      <c r="D90" s="1" t="s">
         <v>302</v>
       </c>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A81" t="s">
+    <row r="91" spans="1:4" ht="17.25">
+      <c r="A91" s="1" t="s">
         <v>303</v>
       </c>
-      <c r="B81" t="s">
+      <c r="B91" s="1" t="s">
         <v>304</v>
       </c>
-      <c r="C81" t="s">
+      <c r="C91" s="1" t="s">
         <v>305</v>
       </c>
-      <c r="D81" t="s">
+      <c r="D91" s="1" t="s">
         <v>306</v>
       </c>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A82" t="s">
+    <row r="92" spans="1:4" ht="17.25">
+      <c r="A92" s="1" t="s">
         <v>307</v>
       </c>
-      <c r="B82" t="s">
+      <c r="B92" s="1" t="s">
         <v>308</v>
       </c>
-      <c r="C82" t="s">
+      <c r="C92" s="1" t="s">
         <v>309</v>
       </c>
-      <c r="D82" t="s">
+      <c r="D92" s="1" t="s">
         <v>310</v>
       </c>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A83" t="s">
+    <row r="93" spans="1:4" ht="17.25">
+      <c r="A93" s="1" t="s">
         <v>311</v>
       </c>
-      <c r="B83" t="s">
+      <c r="B93" s="1" t="s">
         <v>312</v>
       </c>
-      <c r="C83" t="s">
+      <c r="C93" s="1" t="s">
         <v>313</v>
       </c>
-      <c r="D83" t="s">
+      <c r="D93" s="1" t="s">
         <v>314</v>
       </c>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A84" t="s">
+    <row r="94" spans="1:4" ht="17.25">
+      <c r="A94" s="1" t="s">
         <v>315</v>
       </c>
-      <c r="B84" t="s">
+      <c r="B94" s="1" t="s">
         <v>316</v>
       </c>
-      <c r="C84" t="s">
+      <c r="C94" s="1" t="s">
         <v>317</v>
       </c>
-      <c r="D84" t="s">
+      <c r="D94" s="1" t="s">
         <v>318</v>
       </c>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A85" t="s">
+    <row r="95" spans="1:4" ht="17.25">
+      <c r="A95" s="1" t="s">
         <v>319</v>
       </c>
-      <c r="B85" t="s">
+      <c r="B95" s="1" t="s">
         <v>320</v>
       </c>
-      <c r="C85" t="s">
+      <c r="C95" s="1" t="s">
         <v>321</v>
       </c>
-      <c r="D85" t="s">
+      <c r="D95" s="1" t="s">
         <v>322</v>
       </c>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A86" t="s">
+    <row r="96" spans="1:4" ht="17.25">
+      <c r="A96" s="1" t="s">
         <v>323</v>
       </c>
-      <c r="B86" t="s">
+      <c r="B96" s="1" t="s">
         <v>324</v>
       </c>
-      <c r="C86" t="s">
+      <c r="C96" s="1" t="s">
         <v>325</v>
       </c>
-      <c r="D86" t="s">
+      <c r="D96" s="1" t="s">
         <v>326</v>
       </c>
     </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A87" t="s">
+    <row r="97" spans="1:4" ht="17.25">
+      <c r="A97" s="1" t="s">
         <v>327</v>
       </c>
-      <c r="B87" t="s">
+      <c r="B97" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C97" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="D97" s="1" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" ht="17.25">
+      <c r="A98" s="1" t="s">
         <v>328</v>
       </c>
-      <c r="C87" t="s">
+      <c r="B98" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C98" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="D98" s="1" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" ht="17.25">
+      <c r="A99" s="1" t="s">
         <v>329</v>
       </c>
-      <c r="D87" t="s">
+      <c r="B99" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C99" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="D99" s="1" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" ht="17.25">
+      <c r="A100" s="1" t="s">
         <v>330</v>
       </c>
-    </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A88" t="s">
+      <c r="B100" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C100" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="D100" s="1" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" ht="17.25">
+      <c r="A101" s="1" t="s">
         <v>331</v>
       </c>
-      <c r="B88" t="s">
-        <v>122</v>
-      </c>
-      <c r="C88" t="s">
-        <v>122</v>
-      </c>
-      <c r="D88" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A89" t="s">
+      <c r="B101" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C101" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="D101" s="1" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" ht="17.25">
+      <c r="A102" s="1" t="s">
         <v>332</v>
       </c>
-      <c r="B89" t="s">
-        <v>122</v>
-      </c>
-      <c r="C89" t="s">
-        <v>122</v>
-      </c>
-      <c r="D89" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A90" t="s">
+      <c r="B102" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C102" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="D102" s="1" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" ht="17.25">
+      <c r="A103" s="1" t="s">
         <v>333</v>
       </c>
-      <c r="B90" t="s">
-        <v>122</v>
-      </c>
-      <c r="C90" t="s">
-        <v>122</v>
-      </c>
-      <c r="D90" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A91" t="s">
+      <c r="B103" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C103" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="D103" s="1" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" ht="17.25">
+      <c r="A104" s="1" t="s">
         <v>334</v>
       </c>
-      <c r="B91" t="s">
-        <v>122</v>
-      </c>
-      <c r="C91" t="s">
-        <v>122</v>
-      </c>
-      <c r="D91" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A92" t="s">
+      <c r="B104" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C104" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="D104" s="1" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" ht="17.25">
+      <c r="A105" s="1" t="s">
         <v>335</v>
       </c>
-      <c r="B92" t="s">
-        <v>122</v>
-      </c>
-      <c r="C92" t="s">
-        <v>122</v>
-      </c>
-      <c r="D92" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A93" t="s">
+      <c r="B105" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C105" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="D105" s="1" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" ht="17.25">
+      <c r="A106" s="1" t="s">
         <v>336</v>
       </c>
-      <c r="B93" t="s">
-        <v>122</v>
-      </c>
-      <c r="C93" t="s">
-        <v>122</v>
-      </c>
-      <c r="D93" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A94" t="s">
+      <c r="B106" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C106" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="D106" s="1" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" ht="17.25">
+      <c r="A107" s="1" t="s">
         <v>337</v>
       </c>
-      <c r="B94" t="s">
-        <v>122</v>
-      </c>
-      <c r="C94" t="s">
-        <v>122</v>
-      </c>
-      <c r="D94" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A95" t="s">
+      <c r="B107" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C107" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="D107" s="1" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" ht="17.25">
+      <c r="A108" s="1" t="s">
         <v>338</v>
       </c>
-      <c r="B95" t="s">
-        <v>122</v>
-      </c>
-      <c r="C95" t="s">
-        <v>122</v>
-      </c>
-      <c r="D95" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A96" t="s">
+      <c r="B108" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C108" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="D108" s="1" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" ht="17.25">
+      <c r="A109" s="1" t="s">
         <v>339</v>
       </c>
-      <c r="B96" t="s">
-        <v>122</v>
-      </c>
-      <c r="C96" t="s">
-        <v>122</v>
-      </c>
-      <c r="D96" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A97" t="s">
+      <c r="B109" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C109" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="D109" s="1" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" ht="17.25">
+      <c r="A110" s="1" t="s">
         <v>340</v>
       </c>
-      <c r="B97" t="s">
-        <v>122</v>
-      </c>
-      <c r="C97" t="s">
-        <v>122</v>
-      </c>
-      <c r="D97" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A98" t="s">
+      <c r="B110" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C110" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="D110" s="1" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" ht="17.25">
+      <c r="A111" s="1" t="s">
         <v>341</v>
       </c>
-      <c r="B98" t="s">
-        <v>122</v>
-      </c>
-      <c r="C98" t="s">
-        <v>122</v>
-      </c>
-      <c r="D98" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A99" t="s">
+      <c r="B111" s="1" t="s">
         <v>342</v>
       </c>
-      <c r="B99" t="s">
-        <v>122</v>
-      </c>
-      <c r="C99" t="s">
-        <v>122</v>
-      </c>
-      <c r="D99" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A100" t="s">
+      <c r="C111" s="1" t="s">
         <v>343</v>
       </c>
-      <c r="B100" t="s">
-        <v>122</v>
-      </c>
-      <c r="C100" t="s">
-        <v>122</v>
-      </c>
-      <c r="D100" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A101" t="s">
+      <c r="D111" s="1" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" ht="17.25">
+      <c r="A112" s="1" t="s">
         <v>344</v>
       </c>
-      <c r="B101" t="s">
-        <v>122</v>
-      </c>
-      <c r="C101" t="s">
-        <v>122</v>
-      </c>
-      <c r="D101" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A102" t="s">
+      <c r="B112" s="1" t="s">
         <v>345</v>
       </c>
-      <c r="B102" t="s">
+      <c r="C112" s="1" t="s">
         <v>346</v>
       </c>
-      <c r="C102" t="s">
+      <c r="D112" s="1" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" ht="17.25">
+      <c r="A113" s="1" t="s">
         <v>347</v>
       </c>
-      <c r="D102" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A103" t="s">
+      <c r="B113" s="1" t="s">
         <v>348</v>
       </c>
-      <c r="B103" t="s">
+      <c r="C113" s="1" t="s">
         <v>349</v>
       </c>
-      <c r="C103" t="s">
+      <c r="D113" s="1" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" ht="17.25">
+      <c r="A114" s="1" t="s">
         <v>350</v>
       </c>
-      <c r="D103" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A104" t="s">
+      <c r="B114" s="1" t="s">
         <v>351</v>
       </c>
-      <c r="B104" t="s">
+      <c r="C114" s="1" t="s">
         <v>352</v>
       </c>
-      <c r="C104" t="s">
+      <c r="D114" s="1" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" ht="17.25">
+      <c r="A115" s="1" t="s">
         <v>353</v>
       </c>
-      <c r="D104" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A105" t="s">
+      <c r="B115" s="1" t="s">
         <v>354</v>
       </c>
-      <c r="B105" t="s">
+      <c r="C115" s="1" t="s">
         <v>355</v>
       </c>
-      <c r="C105" t="s">
+      <c r="D115" s="1" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" ht="17.25">
+      <c r="A116" s="1" t="s">
         <v>356</v>
       </c>
-      <c r="D105" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A106" t="s">
+      <c r="B116" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="B106" t="s">
+      <c r="C116" s="1" t="s">
         <v>358</v>
       </c>
-      <c r="C106" t="s">
+      <c r="D116" s="1" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" ht="17.25">
+      <c r="A117" s="1" t="s">
         <v>359</v>
       </c>
-      <c r="D106" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A107" t="s">
+      <c r="B117" s="1" t="s">
         <v>360</v>
       </c>
-      <c r="B107" t="s">
+      <c r="C117" s="1" t="s">
         <v>361</v>
       </c>
-      <c r="C107" t="s">
+      <c r="D117" s="1" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" ht="17.25">
+      <c r="A118" s="1" t="s">
         <v>362</v>
       </c>
-      <c r="D107" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A108" t="s">
+      <c r="B118" s="1" t="s">
         <v>363</v>
       </c>
-      <c r="B108" t="s">
+      <c r="C118" s="1" t="s">
         <v>364</v>
       </c>
-      <c r="C108" t="s">
+      <c r="D118" s="1" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" ht="17.25">
+      <c r="A119" s="1" t="s">
         <v>365</v>
       </c>
-      <c r="D108" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A109" t="s">
+      <c r="B119" s="1" t="s">
         <v>366</v>
       </c>
-      <c r="B109" t="s">
+      <c r="C119" s="1" t="s">
         <v>367</v>
       </c>
-      <c r="C109" t="s">
+      <c r="D119" s="1" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" ht="17.25">
+      <c r="A120" s="1" t="s">
         <v>368</v>
       </c>
-      <c r="D109" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A110" t="s">
+      <c r="B120" s="1" t="s">
         <v>369</v>
       </c>
-      <c r="B110" t="s">
+      <c r="C120" s="1" t="s">
         <v>370</v>
       </c>
-      <c r="C110" t="s">
+      <c r="D120" s="1" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4" ht="17.25">
+      <c r="A121" s="1" t="s">
         <v>371</v>
       </c>
-      <c r="D110" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A111" t="s">
+      <c r="B121" s="1" t="s">
         <v>372</v>
       </c>
-      <c r="B111" t="s">
+      <c r="C121" s="1" t="s">
         <v>373</v>
       </c>
-      <c r="C111" t="s">
+      <c r="D121" s="1" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4" ht="17.25">
+      <c r="A122" s="1" t="s">
         <v>374</v>
       </c>
-      <c r="D111" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A112" t="s">
+      <c r="B122" s="1" t="s">
         <v>375</v>
       </c>
-      <c r="B112" t="s">
+      <c r="C122" s="1" t="s">
         <v>376</v>
       </c>
-      <c r="C112" t="s">
+      <c r="D122" s="1" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4" ht="17.25">
+      <c r="A123" s="1" t="s">
         <v>377</v>
       </c>
-      <c r="D112" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A113" t="s">
+      <c r="B123" s="1" t="s">
         <v>378</v>
       </c>
-      <c r="B113" t="s">
+      <c r="C123" s="1" t="s">
         <v>379</v>
       </c>
-      <c r="C113" t="s">
+      <c r="D123" s="1" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4" ht="17.25">
+      <c r="A124" s="1" t="s">
         <v>380</v>
       </c>
-      <c r="D113" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A114" t="s">
+      <c r="B124" s="1" t="s">
         <v>381</v>
       </c>
-      <c r="B114" t="s">
+      <c r="C124" s="1" t="s">
         <v>382</v>
       </c>
-      <c r="C114" t="s">
+      <c r="D124" s="1" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4" ht="17.25">
+      <c r="A125" s="1" t="s">
         <v>383</v>
       </c>
-      <c r="D114" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A115" t="s">
+      <c r="B125" s="1" t="s">
         <v>384</v>
       </c>
-      <c r="B115" t="s">
+      <c r="C125" s="1" t="s">
         <v>385</v>
       </c>
-      <c r="C115" t="s">
+      <c r="D125" s="1" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4" ht="17.25">
+      <c r="A126" s="1" t="s">
         <v>386</v>
       </c>
-      <c r="D115" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A116" t="s">
+      <c r="B126" s="1" t="s">
         <v>387</v>
       </c>
-      <c r="B116" t="s">
+      <c r="C126" s="1" t="s">
         <v>388</v>
       </c>
-      <c r="C116" t="s">
+      <c r="D126" s="1" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4" ht="17.25">
+      <c r="A127" s="1" t="s">
         <v>389</v>
       </c>
-      <c r="D116" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A117" t="s">
+      <c r="B127" s="1" t="s">
         <v>390</v>
       </c>
-      <c r="B117" t="s">
+      <c r="C127" s="1" t="s">
         <v>391</v>
       </c>
-      <c r="C117" t="s">
+      <c r="D127" s="1" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4" ht="17.100000000000001" customHeight="1">
+      <c r="A128" s="1" t="s">
         <v>392</v>
       </c>
-      <c r="D117" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A118" t="s">
+      <c r="B128" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C128" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="D128" s="1" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4" ht="17.25">
+      <c r="A129" s="1" t="s">
         <v>393</v>
       </c>
-      <c r="B118" t="s">
+      <c r="B129" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C129" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="D129" s="1" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4" ht="17.25">
+      <c r="A130" s="1" t="s">
         <v>394</v>
       </c>
-      <c r="C118" t="s">
+      <c r="B130" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C130" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="D130" s="1" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4" ht="17.25">
+      <c r="A131" s="1" t="s">
         <v>395</v>
       </c>
-      <c r="D118" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A119" t="s">
+      <c r="B131" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C131" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="D131" s="1" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4" ht="17.25">
+      <c r="A132" s="1" t="s">
         <v>396</v>
       </c>
-      <c r="B119" t="s">
+      <c r="B132" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C132" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="D132" s="1" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4" ht="17.25">
+      <c r="A133" s="1" t="s">
         <v>397</v>
       </c>
-      <c r="C119" t="s">
+      <c r="B133" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C133" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="D133" s="1" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4" ht="17.25">
+      <c r="A134" s="1" t="s">
         <v>398</v>
       </c>
-      <c r="D119" t="s">
+      <c r="B134" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C134" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="D134" s="1" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4" ht="17.25">
+      <c r="A135" s="1" t="s">
         <v>399</v>
       </c>
-    </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A120" t="s">
+      <c r="B135" t="s">
         <v>400</v>
       </c>
-      <c r="B120" t="s">
+      <c r="C135" s="1" t="s">
         <v>401</v>
       </c>
-      <c r="C120" t="s">
+      <c r="D135" s="1" t="s">
         <v>402</v>
       </c>
-      <c r="D120" t="s">
+    </row>
+    <row r="136" spans="1:4" ht="17.25">
+      <c r="A136" s="1" t="s">
         <v>403</v>
       </c>
-    </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A121" t="s">
+      <c r="B136" t="s">
         <v>404</v>
       </c>
-      <c r="B121" t="s">
+      <c r="C136" s="1" t="s">
         <v>405</v>
       </c>
-      <c r="C121" t="s">
+      <c r="D136" s="1" t="s">
         <v>406</v>
       </c>
-      <c r="D121" t="s">
+    </row>
+    <row r="137" spans="1:4" ht="17.25">
+      <c r="A137" s="1" t="s">
         <v>407</v>
       </c>
-    </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A122" t="s">
+      <c r="B137" t="s">
         <v>408</v>
       </c>
-      <c r="B122" t="s">
+      <c r="C137" s="1" t="s">
         <v>409</v>
       </c>
-      <c r="C122" t="s">
+      <c r="D137" s="1" t="s">
         <v>410</v>
       </c>
-      <c r="D122" t="s">
+    </row>
+    <row r="138" spans="1:4" ht="17.25">
+      <c r="A138" s="1" t="s">
         <v>411</v>
       </c>
-    </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A123" t="s">
+      <c r="B138" t="s">
         <v>412</v>
       </c>
-      <c r="B123" t="s">
+      <c r="C138" s="1" t="s">
         <v>413</v>
       </c>
-      <c r="C123" t="s">
+      <c r="D138" s="1" t="s">
         <v>414</v>
       </c>
-      <c r="D123" t="s">
+    </row>
+    <row r="139" spans="1:4" ht="17.25">
+      <c r="A139" s="1" t="s">
         <v>415</v>
       </c>
-    </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A124" t="s">
+      <c r="B139" t="s">
         <v>416</v>
       </c>
-      <c r="B124" t="s">
-        <v>122</v>
-      </c>
-      <c r="C124" t="s">
-        <v>122</v>
-      </c>
-      <c r="D124" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A125" t="s">
+      <c r="C139" s="1" t="s">
         <v>417</v>
       </c>
-      <c r="B125" t="s">
-        <v>122</v>
-      </c>
-      <c r="C125" t="s">
-        <v>122</v>
-      </c>
-      <c r="D125" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A126" t="s">
+      <c r="D139" s="1" t="s">
         <v>418</v>
       </c>
-      <c r="B126" t="s">
-        <v>122</v>
-      </c>
-      <c r="C126" t="s">
-        <v>122</v>
-      </c>
-      <c r="D126" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A127" t="s">
+    </row>
+    <row r="140" spans="1:4" ht="17.25">
+      <c r="A140" s="1" t="s">
         <v>419</v>
       </c>
-      <c r="B127" t="s">
-        <v>122</v>
-      </c>
-      <c r="C127" t="s">
-        <v>122</v>
-      </c>
-      <c r="D127" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A128" t="s">
+      <c r="B140" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C140" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="D140" s="1" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4" ht="17.25">
+      <c r="A141" s="1" t="s">
         <v>420</v>
       </c>
-      <c r="B128" t="s">
-        <v>122</v>
-      </c>
-      <c r="C128" t="s">
-        <v>122</v>
-      </c>
-      <c r="D128" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A129" t="s">
+      <c r="B141" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C141" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="D141" s="1" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4" ht="17.25">
+      <c r="A142" s="1" t="s">
         <v>421</v>
       </c>
-      <c r="B129" t="s">
-        <v>122</v>
-      </c>
-      <c r="C129" t="s">
-        <v>122</v>
-      </c>
-      <c r="D129" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A130" t="s">
-        <v>422</v>
-      </c>
-      <c r="B130" t="s">
-        <v>122</v>
-      </c>
-      <c r="C130" t="s">
-        <v>122</v>
-      </c>
-      <c r="D130" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A131" t="s">
-        <v>423</v>
-      </c>
-      <c r="B131" t="s">
-        <v>122</v>
-      </c>
-      <c r="C131" t="s">
-        <v>122</v>
-      </c>
-      <c r="D131" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A132" t="s">
-        <v>424</v>
-      </c>
-      <c r="B132" t="s">
-        <v>122</v>
-      </c>
-      <c r="C132" t="s">
-        <v>122</v>
-      </c>
-      <c r="D132" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A133" t="s">
-        <v>425</v>
-      </c>
-      <c r="B133" t="s">
-        <v>122</v>
-      </c>
-      <c r="C133" t="s">
-        <v>122</v>
-      </c>
-      <c r="D133" t="s">
-        <v>122</v>
+      <c r="B142" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C142" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="D142" s="1" t="s">
+        <v>118</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <ignoredErrors>
-    <ignoredError sqref="A1:D132" numberStoredAsText="1"/>
-  </ignoredErrors>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
--- a/language.xlsx
+++ b/language.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20358"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\asdwo\WebstormProjects\nvh-client\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hong\WebstormProjects\nvh-client\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D060ADC5-BB9D-4A32-B6D0-74B5FD0253CB}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="myLanguage" sheetId="1" r:id="rId1"/>
@@ -25,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="647" uniqueCount="540">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="651" uniqueCount="544">
   <si>
     <t>ko</t>
   </si>
@@ -540,9 +539,6 @@
     <t>proszę wprowadzić hasło (Zakaz działania innych niż wyznaczeni pracownicy)</t>
   </si>
   <si>
-    <t>changePassword</t>
-  </si>
-  <si>
     <t>비밀번호 변경</t>
   </si>
   <si>
@@ -4289,12 +4285,30 @@
   <si>
     <t>작업 체크 시간</t>
     <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>변경</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>changePassword</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>change</t>
+  </si>
+  <si>
+    <t>Change</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Zmiana</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="4">
     <font>
       <sz val="12"/>
@@ -4662,11 +4676,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D162"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D163"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B28" sqref="B28"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -5059,7 +5073,7 @@
         <v>105</v>
       </c>
       <c r="B28" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>106</v>
@@ -5112,1836 +5126,1850 @@
     </row>
     <row r="32" spans="1:4" ht="17.25">
       <c r="A32" s="1" t="s">
-        <v>119</v>
+        <v>541</v>
       </c>
       <c r="B32" t="s">
-        <v>120</v>
+        <v>539</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>121</v>
+        <v>542</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>121</v>
+        <v>543</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="17.25">
       <c r="A33" s="1" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="B33" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="17.25">
       <c r="A34" s="1" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="B34" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="17.25">
       <c r="A35" s="1" t="s">
-        <v>130</v>
+        <v>540</v>
       </c>
       <c r="B35" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="17.25">
       <c r="A36" s="1" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="B36" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
     </row>
     <row r="37" spans="1:4" ht="17.25">
       <c r="A37" s="1" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="B37" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
     </row>
     <row r="38" spans="1:4" ht="17.25">
       <c r="A38" s="1" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="B38" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="39" spans="1:4" ht="17.25">
       <c r="A39" s="1" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="B39" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
     </row>
     <row r="40" spans="1:4" ht="17.25">
       <c r="A40" s="1" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="B40" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
     </row>
     <row r="41" spans="1:4" ht="17.25">
       <c r="A41" s="1" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="B41" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
     </row>
     <row r="42" spans="1:4" ht="17.25">
       <c r="A42" s="1" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="B42" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
     </row>
     <row r="43" spans="1:4" ht="17.25">
       <c r="A43" s="1" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="B43" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
     </row>
     <row r="44" spans="1:4" ht="17.25">
       <c r="A44" s="1" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="B44" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
     </row>
     <row r="45" spans="1:4" ht="17.25">
       <c r="A45" s="1" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="B45" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="46" spans="1:4" ht="17.25">
       <c r="A46" s="1" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="B46" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
     </row>
     <row r="47" spans="1:4" ht="17.25">
       <c r="A47" s="1" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="B47" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
     </row>
     <row r="48" spans="1:4" ht="17.25">
       <c r="A48" s="1" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="B48" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
     </row>
     <row r="49" spans="1:4" ht="17.25">
       <c r="A49" s="1" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="B49" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
     </row>
     <row r="50" spans="1:4" ht="17.25">
       <c r="A50" s="1" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="B50" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
     </row>
     <row r="51" spans="1:4" ht="17.25">
       <c r="A51" s="1" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="B51" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
     </row>
     <row r="52" spans="1:4" ht="17.25">
       <c r="A52" s="1" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="B52" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
     </row>
     <row r="53" spans="1:4" ht="17.25">
       <c r="A53" s="1" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="B53" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
     </row>
     <row r="54" spans="1:4" ht="17.25">
       <c r="A54" s="1" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="B54" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
     </row>
     <row r="55" spans="1:4" ht="17.25">
       <c r="A55" s="1" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="B55" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
     </row>
     <row r="56" spans="1:4" ht="17.25">
       <c r="A56" s="1" t="s">
-        <v>208</v>
-      </c>
-      <c r="B56" s="1" t="s">
-        <v>209</v>
+        <v>203</v>
+      </c>
+      <c r="B56" t="s">
+        <v>204</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
     </row>
     <row r="57" spans="1:4" ht="17.25">
       <c r="A57" s="1" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
     </row>
     <row r="58" spans="1:4" ht="17.25">
       <c r="A58" s="1" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
     </row>
     <row r="59" spans="1:4" ht="17.25">
       <c r="A59" s="1" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
     </row>
     <row r="60" spans="1:4" ht="17.25">
       <c r="A60" s="1" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
     </row>
     <row r="61" spans="1:4" ht="17.25">
       <c r="A61" s="1" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>209</v>
+        <v>222</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>209</v>
+        <v>223</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>209</v>
+        <v>224</v>
       </c>
     </row>
     <row r="62" spans="1:4" ht="17.25">
       <c r="A62" s="1" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="63" spans="1:4" ht="17.25">
       <c r="A63" s="1" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="64" spans="1:4" ht="17.25">
       <c r="A64" s="1" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="65" spans="1:4" ht="17.25">
       <c r="A65" s="1" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>231</v>
+        <v>208</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>232</v>
+        <v>208</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>233</v>
+        <v>208</v>
       </c>
     </row>
     <row r="66" spans="1:4" ht="17.25">
       <c r="A66" s="1" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
     </row>
     <row r="67" spans="1:4" ht="17.25">
       <c r="A67" s="1" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
     </row>
     <row r="68" spans="1:4" ht="17.25">
       <c r="A68" s="1" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
     </row>
     <row r="69" spans="1:4" ht="17.25">
       <c r="A69" s="1" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
     </row>
     <row r="70" spans="1:4" ht="17.25">
       <c r="A70" s="1" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>252</v>
+        <v>247</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
     </row>
     <row r="71" spans="1:4" ht="17.25">
       <c r="A71" s="1" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
     </row>
     <row r="72" spans="1:4" ht="17.25">
       <c r="A72" s="1" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
     </row>
     <row r="73" spans="1:4" ht="17.25">
       <c r="A73" s="1" t="s">
-        <v>262</v>
+        <v>257</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
     </row>
     <row r="74" spans="1:4" ht="17.25">
       <c r="A74" s="1" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="D74" s="1" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
     </row>
     <row r="75" spans="1:4" ht="17.25">
       <c r="A75" s="1" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="D75" s="1" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
     </row>
     <row r="76" spans="1:4" ht="17.25">
       <c r="A76" s="1" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
     </row>
     <row r="77" spans="1:4" ht="17.25">
       <c r="A77" s="1" t="s">
-        <v>278</v>
+        <v>273</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>279</v>
+        <v>274</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>280</v>
+        <v>275</v>
       </c>
       <c r="D77" s="1" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
     </row>
     <row r="78" spans="1:4" ht="17.25">
       <c r="A78" s="1" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>283</v>
+        <v>278</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
     </row>
     <row r="79" spans="1:4" ht="17.25">
       <c r="A79" s="1" t="s">
-        <v>286</v>
+        <v>281</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>287</v>
+        <v>282</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>288</v>
+        <v>283</v>
       </c>
       <c r="D79" s="1" t="s">
-        <v>289</v>
+        <v>284</v>
       </c>
     </row>
     <row r="80" spans="1:4" ht="17.25">
       <c r="A80" s="1" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>292</v>
+        <v>287</v>
       </c>
       <c r="D80" s="1" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
     </row>
     <row r="81" spans="1:4" ht="17.25">
       <c r="A81" s="1" t="s">
-        <v>294</v>
+        <v>289</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>296</v>
+        <v>291</v>
       </c>
       <c r="D81" s="1" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
     </row>
     <row r="82" spans="1:4" ht="17.25">
       <c r="A82" s="1" t="s">
-        <v>298</v>
+        <v>293</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>299</v>
+        <v>294</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>300</v>
+        <v>295</v>
       </c>
       <c r="D82" s="1" t="s">
-        <v>301</v>
+        <v>296</v>
       </c>
     </row>
     <row r="83" spans="1:4" ht="17.25">
       <c r="A83" s="1" t="s">
-        <v>302</v>
+        <v>297</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>303</v>
+        <v>298</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="D83" s="1" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
     </row>
     <row r="84" spans="1:4" ht="17.25">
       <c r="A84" s="1" t="s">
-        <v>306</v>
+        <v>301</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>307</v>
+        <v>302</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>308</v>
+        <v>303</v>
       </c>
       <c r="D84" s="1" t="s">
-        <v>309</v>
+        <v>304</v>
       </c>
     </row>
     <row r="85" spans="1:4" ht="17.25">
       <c r="A85" s="1" t="s">
-        <v>310</v>
+        <v>305</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>311</v>
+        <v>306</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>312</v>
+        <v>307</v>
       </c>
       <c r="D85" s="1" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
     </row>
     <row r="86" spans="1:4" ht="17.25">
       <c r="A86" s="1" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
       <c r="D86" s="1" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
     </row>
     <row r="87" spans="1:4" ht="17.25">
       <c r="A87" s="1" t="s">
-        <v>318</v>
+        <v>313</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>319</v>
+        <v>314</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>320</v>
+        <v>315</v>
       </c>
       <c r="D87" s="1" t="s">
-        <v>321</v>
+        <v>316</v>
       </c>
     </row>
     <row r="88" spans="1:4" ht="17.25">
       <c r="A88" s="1" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>324</v>
+        <v>319</v>
       </c>
       <c r="D88" s="1" t="s">
-        <v>325</v>
+        <v>320</v>
       </c>
     </row>
     <row r="89" spans="1:4" ht="17.25">
       <c r="A89" s="1" t="s">
-        <v>326</v>
+        <v>321</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>327</v>
+        <v>322</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>328</v>
+        <v>323</v>
       </c>
       <c r="D89" s="1" t="s">
-        <v>329</v>
+        <v>324</v>
       </c>
     </row>
     <row r="90" spans="1:4" ht="17.25">
       <c r="A90" s="1" t="s">
-        <v>330</v>
+        <v>325</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>331</v>
+        <v>326</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>332</v>
+        <v>327</v>
       </c>
       <c r="D90" s="1" t="s">
-        <v>333</v>
+        <v>328</v>
       </c>
     </row>
     <row r="91" spans="1:4" ht="17.25">
       <c r="A91" s="1" t="s">
-        <v>334</v>
+        <v>329</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>335</v>
+        <v>330</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>336</v>
+        <v>331</v>
       </c>
       <c r="D91" s="1" t="s">
-        <v>337</v>
+        <v>332</v>
       </c>
     </row>
     <row r="92" spans="1:4" ht="17.25">
       <c r="A92" s="1" t="s">
-        <v>338</v>
+        <v>333</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>339</v>
+        <v>334</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>340</v>
+        <v>335</v>
       </c>
       <c r="D92" s="1" t="s">
-        <v>341</v>
+        <v>336</v>
       </c>
     </row>
     <row r="93" spans="1:4" ht="17.25">
       <c r="A93" s="1" t="s">
-        <v>342</v>
+        <v>337</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>343</v>
+        <v>338</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>344</v>
+        <v>339</v>
       </c>
       <c r="D93" s="1" t="s">
-        <v>345</v>
+        <v>340</v>
       </c>
     </row>
     <row r="94" spans="1:4" ht="17.25">
       <c r="A94" s="1" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>347</v>
+        <v>342</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>348</v>
+        <v>343</v>
       </c>
       <c r="D94" s="1" t="s">
-        <v>349</v>
+        <v>344</v>
       </c>
     </row>
     <row r="95" spans="1:4" ht="17.25">
       <c r="A95" s="1" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>351</v>
+        <v>346</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>352</v>
+        <v>347</v>
       </c>
       <c r="D95" s="1" t="s">
-        <v>353</v>
+        <v>348</v>
       </c>
     </row>
     <row r="96" spans="1:4" ht="17.25">
       <c r="A96" s="1" t="s">
-        <v>354</v>
+        <v>349</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>355</v>
+        <v>350</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="D96" s="1" t="s">
-        <v>357</v>
+        <v>352</v>
       </c>
     </row>
     <row r="97" spans="1:4" ht="17.25">
       <c r="A97" s="1" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>359</v>
+        <v>354</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>360</v>
+        <v>355</v>
       </c>
       <c r="D97" s="1" t="s">
-        <v>361</v>
+        <v>356</v>
       </c>
     </row>
     <row r="98" spans="1:4" ht="17.25">
       <c r="A98" s="1" t="s">
-        <v>362</v>
+        <v>357</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>363</v>
+        <v>358</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>364</v>
+        <v>359</v>
       </c>
       <c r="D98" s="1" t="s">
-        <v>365</v>
+        <v>360</v>
       </c>
     </row>
     <row r="99" spans="1:4" ht="17.25">
       <c r="A99" s="1" t="s">
-        <v>366</v>
+        <v>361</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>367</v>
+        <v>362</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>368</v>
+        <v>363</v>
       </c>
       <c r="D99" s="1" t="s">
-        <v>369</v>
+        <v>364</v>
       </c>
     </row>
     <row r="100" spans="1:4" ht="17.25">
       <c r="A100" s="1" t="s">
-        <v>370</v>
+        <v>365</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>371</v>
+        <v>366</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>372</v>
+        <v>367</v>
       </c>
       <c r="D100" s="1" t="s">
-        <v>373</v>
+        <v>368</v>
       </c>
     </row>
     <row r="101" spans="1:4" ht="17.25">
       <c r="A101" s="1" t="s">
-        <v>374</v>
+        <v>369</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>375</v>
+        <v>370</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>376</v>
+        <v>371</v>
       </c>
       <c r="D101" s="1" t="s">
-        <v>377</v>
+        <v>372</v>
       </c>
     </row>
     <row r="102" spans="1:4" ht="17.25">
       <c r="A102" s="1" t="s">
-        <v>378</v>
+        <v>373</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>379</v>
+        <v>374</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>380</v>
+        <v>375</v>
       </c>
       <c r="D102" s="1" t="s">
-        <v>381</v>
+        <v>376</v>
       </c>
     </row>
     <row r="103" spans="1:4" ht="17.25">
       <c r="A103" s="1" t="s">
-        <v>382</v>
+        <v>377</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>383</v>
+        <v>378</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>384</v>
+        <v>379</v>
       </c>
       <c r="D103" s="1" t="s">
-        <v>385</v>
+        <v>380</v>
       </c>
     </row>
     <row r="104" spans="1:4" ht="17.25">
       <c r="A104" s="1" t="s">
-        <v>386</v>
+        <v>381</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>387</v>
+        <v>382</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>388</v>
+        <v>383</v>
       </c>
       <c r="D104" s="1" t="s">
-        <v>389</v>
+        <v>384</v>
       </c>
     </row>
     <row r="105" spans="1:4" ht="17.25">
       <c r="A105" s="1" t="s">
-        <v>390</v>
+        <v>385</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>391</v>
+        <v>386</v>
       </c>
       <c r="C105" s="1" t="s">
-        <v>392</v>
+        <v>387</v>
       </c>
       <c r="D105" s="1" t="s">
-        <v>393</v>
+        <v>388</v>
       </c>
     </row>
     <row r="106" spans="1:4" ht="17.25">
       <c r="A106" s="1" t="s">
-        <v>394</v>
+        <v>389</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>395</v>
+        <v>390</v>
       </c>
       <c r="C106" s="1" t="s">
-        <v>396</v>
+        <v>391</v>
       </c>
       <c r="D106" s="1" t="s">
-        <v>397</v>
+        <v>392</v>
       </c>
     </row>
     <row r="107" spans="1:4" ht="17.25">
       <c r="A107" s="1" t="s">
-        <v>398</v>
+        <v>393</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>399</v>
+        <v>394</v>
       </c>
       <c r="C107" s="1" t="s">
-        <v>400</v>
+        <v>395</v>
       </c>
       <c r="D107" s="1" t="s">
-        <v>401</v>
+        <v>396</v>
       </c>
     </row>
     <row r="108" spans="1:4" ht="17.25">
       <c r="A108" s="1" t="s">
-        <v>402</v>
+        <v>397</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>403</v>
+        <v>398</v>
       </c>
       <c r="C108" s="1" t="s">
-        <v>404</v>
+        <v>399</v>
       </c>
       <c r="D108" s="1" t="s">
-        <v>405</v>
+        <v>400</v>
       </c>
     </row>
     <row r="109" spans="1:4" ht="17.25">
       <c r="A109" s="1" t="s">
-        <v>406</v>
+        <v>401</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>407</v>
+        <v>402</v>
       </c>
       <c r="C109" s="1" t="s">
-        <v>408</v>
+        <v>403</v>
       </c>
       <c r="D109" s="1" t="s">
-        <v>409</v>
+        <v>404</v>
       </c>
     </row>
     <row r="110" spans="1:4" ht="17.25">
       <c r="A110" s="1" t="s">
-        <v>410</v>
+        <v>405</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>411</v>
+        <v>406</v>
       </c>
       <c r="C110" s="1" t="s">
-        <v>412</v>
+        <v>407</v>
       </c>
       <c r="D110" s="1" t="s">
-        <v>413</v>
+        <v>408</v>
       </c>
     </row>
     <row r="111" spans="1:4" ht="17.25">
       <c r="A111" s="1" t="s">
-        <v>414</v>
+        <v>409</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>415</v>
+        <v>410</v>
       </c>
       <c r="C111" s="1" t="s">
-        <v>416</v>
+        <v>411</v>
       </c>
       <c r="D111" s="1" t="s">
-        <v>417</v>
+        <v>412</v>
       </c>
     </row>
     <row r="112" spans="1:4" ht="17.25">
       <c r="A112" s="1" t="s">
-        <v>418</v>
+        <v>413</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>419</v>
+        <v>414</v>
       </c>
       <c r="C112" s="1" t="s">
-        <v>420</v>
+        <v>415</v>
       </c>
       <c r="D112" s="1" t="s">
-        <v>421</v>
+        <v>416</v>
       </c>
     </row>
     <row r="113" spans="1:4" ht="17.25">
       <c r="A113" s="1" t="s">
-        <v>422</v>
+        <v>417</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>423</v>
+        <v>418</v>
       </c>
       <c r="C113" s="1" t="s">
-        <v>424</v>
+        <v>419</v>
       </c>
       <c r="D113" s="1" t="s">
-        <v>425</v>
+        <v>420</v>
       </c>
     </row>
     <row r="114" spans="1:4" ht="17.25">
       <c r="A114" s="1" t="s">
-        <v>426</v>
+        <v>421</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>427</v>
+        <v>422</v>
       </c>
       <c r="C114" s="1" t="s">
-        <v>428</v>
+        <v>423</v>
       </c>
       <c r="D114" s="1" t="s">
-        <v>429</v>
+        <v>424</v>
       </c>
     </row>
     <row r="115" spans="1:4" ht="17.25">
       <c r="A115" s="1" t="s">
-        <v>430</v>
+        <v>425</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>431</v>
+        <v>426</v>
       </c>
       <c r="C115" s="1" t="s">
-        <v>432</v>
+        <v>427</v>
       </c>
       <c r="D115" s="1" t="s">
-        <v>433</v>
+        <v>428</v>
       </c>
     </row>
     <row r="116" spans="1:4" ht="17.25">
       <c r="A116" s="1" t="s">
-        <v>434</v>
+        <v>429</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>435</v>
+        <v>430</v>
       </c>
       <c r="C116" s="1" t="s">
-        <v>436</v>
+        <v>431</v>
       </c>
       <c r="D116" s="1" t="s">
-        <v>437</v>
+        <v>432</v>
       </c>
     </row>
     <row r="117" spans="1:4" ht="17.25">
       <c r="A117" s="1" t="s">
-        <v>438</v>
+        <v>433</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>209</v>
+        <v>434</v>
       </c>
       <c r="C117" s="1" t="s">
-        <v>209</v>
+        <v>435</v>
       </c>
       <c r="D117" s="1" t="s">
-        <v>209</v>
+        <v>436</v>
       </c>
     </row>
     <row r="118" spans="1:4" ht="17.25">
       <c r="A118" s="1" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C118" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D118" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="119" spans="1:4" ht="17.25">
       <c r="A119" s="1" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C119" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D119" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="120" spans="1:4" ht="17.25">
       <c r="A120" s="1" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C120" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D120" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="121" spans="1:4" ht="17.25">
       <c r="A121" s="1" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C121" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D121" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="122" spans="1:4" ht="17.25">
       <c r="A122" s="1" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C122" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D122" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="123" spans="1:4" ht="17.25">
       <c r="A123" s="1" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C123" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D123" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="124" spans="1:4" ht="17.25">
       <c r="A124" s="1" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="B124" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C124" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D124" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="125" spans="1:4" ht="17.25">
       <c r="A125" s="1" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C125" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D125" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="126" spans="1:4" ht="17.25">
       <c r="A126" s="1" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C126" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D126" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="127" spans="1:4" ht="17.25">
       <c r="A127" s="1" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="B127" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C127" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D127" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="128" spans="1:4" ht="17.25">
       <c r="A128" s="1" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="B128" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C128" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D128" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="129" spans="1:4" ht="17.25">
       <c r="A129" s="1" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="B129" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C129" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D129" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="130" spans="1:4" ht="17.25">
       <c r="A130" s="1" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="B130" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C130" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D130" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="131" spans="1:4" ht="17.25">
       <c r="A131" s="1" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="B131" s="1" t="s">
-        <v>453</v>
+        <v>208</v>
       </c>
       <c r="C131" s="1" t="s">
-        <v>454</v>
+        <v>208</v>
       </c>
       <c r="D131" s="1" t="s">
-        <v>454</v>
+        <v>208</v>
       </c>
     </row>
     <row r="132" spans="1:4" ht="17.25">
       <c r="A132" s="1" t="s">
-        <v>455</v>
+        <v>451</v>
       </c>
       <c r="B132" s="1" t="s">
-        <v>456</v>
+        <v>452</v>
       </c>
       <c r="C132" s="1" t="s">
-        <v>457</v>
+        <v>453</v>
       </c>
       <c r="D132" s="1" t="s">
-        <v>457</v>
+        <v>453</v>
       </c>
     </row>
     <row r="133" spans="1:4" ht="17.25">
       <c r="A133" s="1" t="s">
-        <v>458</v>
+        <v>454</v>
       </c>
       <c r="B133" s="1" t="s">
-        <v>459</v>
+        <v>455</v>
       </c>
       <c r="C133" s="1" t="s">
-        <v>460</v>
+        <v>456</v>
       </c>
       <c r="D133" s="1" t="s">
-        <v>460</v>
+        <v>456</v>
       </c>
     </row>
     <row r="134" spans="1:4" ht="17.25">
       <c r="A134" s="1" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="B134" s="1" t="s">
-        <v>462</v>
+        <v>458</v>
       </c>
       <c r="C134" s="1" t="s">
-        <v>463</v>
+        <v>459</v>
       </c>
       <c r="D134" s="1" t="s">
-        <v>463</v>
+        <v>459</v>
       </c>
     </row>
     <row r="135" spans="1:4" ht="17.25">
       <c r="A135" s="1" t="s">
-        <v>464</v>
+        <v>460</v>
       </c>
       <c r="B135" s="1" t="s">
-        <v>465</v>
+        <v>461</v>
       </c>
       <c r="C135" s="1" t="s">
-        <v>466</v>
+        <v>462</v>
       </c>
       <c r="D135" s="1" t="s">
-        <v>466</v>
+        <v>462</v>
       </c>
     </row>
     <row r="136" spans="1:4" ht="17.25">
       <c r="A136" s="1" t="s">
-        <v>467</v>
+        <v>463</v>
       </c>
       <c r="B136" s="1" t="s">
-        <v>468</v>
+        <v>464</v>
       </c>
       <c r="C136" s="1" t="s">
-        <v>469</v>
+        <v>465</v>
       </c>
       <c r="D136" s="1" t="s">
-        <v>469</v>
+        <v>465</v>
       </c>
     </row>
     <row r="137" spans="1:4" ht="17.25">
       <c r="A137" s="1" t="s">
-        <v>470</v>
+        <v>466</v>
       </c>
       <c r="B137" s="1" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
       <c r="C137" s="1" t="s">
-        <v>472</v>
+        <v>468</v>
       </c>
       <c r="D137" s="1" t="s">
-        <v>472</v>
+        <v>468</v>
       </c>
     </row>
     <row r="138" spans="1:4" ht="17.25">
       <c r="A138" s="1" t="s">
-        <v>473</v>
+        <v>469</v>
       </c>
       <c r="B138" s="1" t="s">
-        <v>474</v>
+        <v>470</v>
       </c>
       <c r="C138" s="1" t="s">
-        <v>475</v>
+        <v>471</v>
       </c>
       <c r="D138" s="1" t="s">
-        <v>475</v>
+        <v>471</v>
       </c>
     </row>
     <row r="139" spans="1:4" ht="17.25">
       <c r="A139" s="1" t="s">
-        <v>476</v>
+        <v>472</v>
       </c>
       <c r="B139" s="1" t="s">
-        <v>477</v>
+        <v>473</v>
       </c>
       <c r="C139" s="1" t="s">
-        <v>478</v>
+        <v>474</v>
       </c>
       <c r="D139" s="1" t="s">
-        <v>478</v>
+        <v>474</v>
       </c>
     </row>
     <row r="140" spans="1:4" ht="17.25">
       <c r="A140" s="1" t="s">
-        <v>479</v>
+        <v>475</v>
       </c>
       <c r="B140" s="1" t="s">
-        <v>480</v>
+        <v>476</v>
       </c>
       <c r="C140" s="1" t="s">
-        <v>481</v>
+        <v>477</v>
       </c>
       <c r="D140" s="1" t="s">
-        <v>481</v>
+        <v>477</v>
       </c>
     </row>
     <row r="141" spans="1:4" ht="17.25">
       <c r="A141" s="1" t="s">
-        <v>482</v>
+        <v>478</v>
       </c>
       <c r="B141" s="1" t="s">
-        <v>483</v>
+        <v>479</v>
       </c>
       <c r="C141" s="1" t="s">
-        <v>484</v>
+        <v>480</v>
       </c>
       <c r="D141" s="1" t="s">
-        <v>484</v>
+        <v>480</v>
       </c>
     </row>
     <row r="142" spans="1:4" ht="17.25">
       <c r="A142" s="1" t="s">
-        <v>485</v>
+        <v>481</v>
       </c>
       <c r="B142" s="1" t="s">
-        <v>486</v>
+        <v>482</v>
       </c>
       <c r="C142" s="1" t="s">
-        <v>487</v>
+        <v>483</v>
       </c>
       <c r="D142" s="1" t="s">
-        <v>487</v>
+        <v>483</v>
       </c>
     </row>
     <row r="143" spans="1:4" ht="17.25">
       <c r="A143" s="1" t="s">
-        <v>488</v>
+        <v>484</v>
       </c>
       <c r="B143" s="1" t="s">
-        <v>489</v>
+        <v>485</v>
       </c>
       <c r="C143" s="1" t="s">
-        <v>490</v>
+        <v>486</v>
       </c>
       <c r="D143" s="1" t="s">
-        <v>490</v>
+        <v>486</v>
       </c>
     </row>
     <row r="144" spans="1:4" ht="17.25">
       <c r="A144" s="1" t="s">
-        <v>491</v>
+        <v>487</v>
       </c>
       <c r="B144" s="1" t="s">
-        <v>492</v>
+        <v>488</v>
       </c>
       <c r="C144" s="1" t="s">
-        <v>493</v>
+        <v>489</v>
       </c>
       <c r="D144" s="1" t="s">
-        <v>493</v>
+        <v>489</v>
       </c>
     </row>
     <row r="145" spans="1:4" ht="17.25">
       <c r="A145" s="1" t="s">
-        <v>494</v>
+        <v>490</v>
       </c>
       <c r="B145" s="1" t="s">
-        <v>495</v>
+        <v>491</v>
       </c>
       <c r="C145" s="1" t="s">
-        <v>496</v>
+        <v>492</v>
       </c>
       <c r="D145" s="1" t="s">
-        <v>496</v>
+        <v>492</v>
       </c>
     </row>
     <row r="146" spans="1:4" ht="17.25">
       <c r="A146" s="1" t="s">
-        <v>497</v>
+        <v>493</v>
       </c>
       <c r="B146" s="1" t="s">
-        <v>498</v>
+        <v>494</v>
       </c>
       <c r="C146" s="1" t="s">
-        <v>499</v>
+        <v>495</v>
       </c>
       <c r="D146" s="1" t="s">
-        <v>499</v>
+        <v>495</v>
       </c>
     </row>
     <row r="147" spans="1:4" ht="17.25">
       <c r="A147" s="1" t="s">
+        <v>496</v>
+      </c>
+      <c r="B147" s="1" t="s">
+        <v>497</v>
+      </c>
+      <c r="C147" s="1" t="s">
+        <v>498</v>
+      </c>
+      <c r="D147" s="1" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4" ht="17.25">
+      <c r="A148" s="1" t="s">
+        <v>499</v>
+      </c>
+      <c r="B148" s="1" t="s">
         <v>500</v>
       </c>
-      <c r="B147" s="1" t="s">
+      <c r="C148" s="1" t="s">
         <v>501</v>
       </c>
-      <c r="C147" s="1" t="s">
+      <c r="D148" s="1" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4" ht="17.100000000000001" customHeight="1">
+      <c r="A149" s="1" t="s">
         <v>502</v>
       </c>
-      <c r="D147" s="1" t="s">
-        <v>502</v>
-      </c>
-    </row>
-    <row r="148" spans="1:4" ht="17.100000000000001" customHeight="1">
-      <c r="A148" s="1" t="s">
-        <v>503</v>
-      </c>
-      <c r="B148" s="1" t="s">
-        <v>209</v>
-      </c>
-      <c r="C148" s="1" t="s">
-        <v>209</v>
-      </c>
-      <c r="D148" s="1" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="149" spans="1:4" ht="17.25">
-      <c r="A149" s="1" t="s">
-        <v>504</v>
-      </c>
       <c r="B149" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C149" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D149" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="150" spans="1:4" ht="17.25">
       <c r="A150" s="1" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="B150" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C150" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D150" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="151" spans="1:4" ht="17.25">
       <c r="A151" s="1" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="B151" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C151" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D151" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="152" spans="1:4" ht="17.25">
       <c r="A152" s="1" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="B152" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C152" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D152" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="153" spans="1:4" ht="17.25">
       <c r="A153" s="1" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="B153" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C153" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D153" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="154" spans="1:4" ht="17.25">
       <c r="A154" s="1" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="B154" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C154" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D154" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="155" spans="1:4" ht="17.25">
       <c r="A155" s="1" t="s">
-        <v>510</v>
-      </c>
-      <c r="B155" t="s">
-        <v>511</v>
+        <v>508</v>
+      </c>
+      <c r="B155" s="1" t="s">
+        <v>208</v>
       </c>
       <c r="C155" s="1" t="s">
-        <v>512</v>
+        <v>208</v>
       </c>
       <c r="D155" s="1" t="s">
-        <v>513</v>
+        <v>208</v>
       </c>
     </row>
     <row r="156" spans="1:4" ht="17.25">
       <c r="A156" s="1" t="s">
-        <v>514</v>
+        <v>509</v>
       </c>
       <c r="B156" t="s">
-        <v>515</v>
+        <v>510</v>
       </c>
       <c r="C156" s="1" t="s">
-        <v>516</v>
+        <v>511</v>
       </c>
       <c r="D156" s="1" t="s">
-        <v>517</v>
+        <v>512</v>
       </c>
     </row>
     <row r="157" spans="1:4" ht="17.25">
       <c r="A157" s="1" t="s">
-        <v>518</v>
+        <v>513</v>
       </c>
       <c r="B157" t="s">
-        <v>519</v>
+        <v>514</v>
       </c>
       <c r="C157" s="1" t="s">
-        <v>520</v>
+        <v>515</v>
       </c>
       <c r="D157" s="1" t="s">
-        <v>521</v>
+        <v>516</v>
       </c>
     </row>
     <row r="158" spans="1:4" ht="17.25">
       <c r="A158" s="1" t="s">
-        <v>522</v>
+        <v>517</v>
       </c>
       <c r="B158" t="s">
-        <v>523</v>
+        <v>518</v>
       </c>
       <c r="C158" s="1" t="s">
-        <v>524</v>
+        <v>519</v>
       </c>
       <c r="D158" s="1" t="s">
-        <v>525</v>
+        <v>520</v>
       </c>
     </row>
     <row r="159" spans="1:4" ht="17.25">
       <c r="A159" s="1" t="s">
-        <v>526</v>
+        <v>521</v>
       </c>
       <c r="B159" t="s">
-        <v>527</v>
+        <v>522</v>
       </c>
       <c r="C159" s="1" t="s">
-        <v>528</v>
+        <v>523</v>
       </c>
       <c r="D159" s="1" t="s">
-        <v>529</v>
+        <v>524</v>
       </c>
     </row>
     <row r="160" spans="1:4" ht="17.25">
       <c r="A160" s="1" t="s">
-        <v>530</v>
-      </c>
-      <c r="B160" s="2" t="s">
-        <v>531</v>
+        <v>525</v>
+      </c>
+      <c r="B160" t="s">
+        <v>526</v>
       </c>
       <c r="C160" s="1" t="s">
-        <v>532</v>
+        <v>527</v>
       </c>
       <c r="D160" s="1" t="s">
-        <v>533</v>
+        <v>528</v>
       </c>
     </row>
     <row r="161" spans="1:4" ht="17.25">
       <c r="A161" s="1" t="s">
-        <v>534</v>
+        <v>529</v>
       </c>
       <c r="B161" s="2" t="s">
-        <v>535</v>
+        <v>530</v>
       </c>
       <c r="C161" s="1" t="s">
-        <v>536</v>
+        <v>531</v>
       </c>
       <c r="D161" s="1" t="s">
-        <v>537</v>
+        <v>532</v>
       </c>
     </row>
     <row r="162" spans="1:4" ht="17.25">
       <c r="A162" s="1" t="s">
-        <v>538</v>
-      </c>
-      <c r="B162" s="1" t="s">
-        <v>209</v>
+        <v>533</v>
+      </c>
+      <c r="B162" s="2" t="s">
+        <v>534</v>
       </c>
       <c r="C162" s="1" t="s">
-        <v>209</v>
+        <v>535</v>
       </c>
       <c r="D162" s="1" t="s">
-        <v>209</v>
+        <v>536</v>
+      </c>
+    </row>
+    <row r="163" spans="1:4" ht="17.25">
+      <c r="A163" s="1" t="s">
+        <v>537</v>
+      </c>
+      <c r="B163" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="C163" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="D163" s="1" t="s">
+        <v>208</v>
       </c>
     </row>
   </sheetData>
